--- a/aa.xlsx
+++ b/aa.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\szkoła\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\source\repos\TROLlox78\parseEquationValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964969C4-FD06-4124-9C1F-12E5F53BA4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1760DA-3674-4CB2-BFBE-C589C8B38741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20760" xr2:uid="{8721A5AD-F8B0-4928-A1B0-A8C767E4C737}"/>
+    <workbookView xWindow="1935" yWindow="0" windowWidth="12075" windowHeight="16200" xr2:uid="{8721A5AD-F8B0-4928-A1B0-A8C767E4C737}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="138">
   <si>
     <t>A</t>
   </si>
@@ -444,6 +447,9 @@
   </si>
   <si>
     <t>fo</t>
+  </si>
+  <si>
+    <t>Δ [%]</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,8 +471,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,12 +513,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,8 +529,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -759,11 +783,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -786,12 +939,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,28 +955,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -842,7 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -854,12 +983,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,7 +1069,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -939,7 +1131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -950,10 +1142,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9869525386097397E-2"/>
-          <c:y val="0.11174045856100319"/>
-          <c:w val="0.77608281290391745"/>
-          <c:h val="0.75275062908303214"/>
+          <c:x val="8.7587942698595739E-2"/>
+          <c:y val="0.10738061154079856"/>
+          <c:w val="0.86501643602071887"/>
+          <c:h val="0.77793586376273205"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1041,40 +1233,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>27.554732451675012</c:v>
+                  <c:v>28.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.042288469525836</c:v>
+                  <c:v>33.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.368613689853738</c:v>
+                  <c:v>38.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.439425527995134</c:v>
+                  <c:v>40.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.243318141100694</c:v>
+                  <c:v>41.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.21824719473075</c:v>
+                  <c:v>41.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.823366030815606</c:v>
+                  <c:v>41.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.098146689894882</c:v>
+                  <c:v>41.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.887328371741738</c:v>
+                  <c:v>38.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.984885535469566</c:v>
+                  <c:v>35.19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.356203846126121</c:v>
+                  <c:v>32.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.215796659062747</c:v>
+                  <c:v>26.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,13 +1333,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.458226317081603</c:v>
+                  <c:v>38.924291706928109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.458226317081603</c:v>
+                  <c:v>41.924291706928109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.458226317081603</c:v>
+                  <c:v>38.924291706928109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,8 +1367,588 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0.1"/>
+          <c:max val="2000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>f[kHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48606217344026975"/>
+              <c:y val="0.90416156019457805"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408517120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="408517120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>20 log│vo/vs│</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408519200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Układ B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7511778437651802E-2"/>
+          <c:y val="0.11174045856100319"/>
+          <c:w val="0.85237546372632989"/>
+          <c:h val="0.76583006347473537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20 log10│vo/vs│</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$8:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$8:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC49-4E10-954D-2E8CF1AE97BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$21:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.345425913115285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.345425913115285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.345425913115285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC49-4E10-954D-2E8CF1AE97BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408519200"/>
+        <c:axId val="408517120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408519200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1253,7 +2025,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1291,7 +2063,1195 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408517120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="408517120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>20 log│vo/vs│</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408519200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Układ C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9750231268899708E-2"/>
+          <c:y val="0.11174045856100319"/>
+          <c:w val="0.83370990943435097"/>
+          <c:h val="0.76583006347473537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20 log10│vo/vs│</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$8:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$8:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.835556083213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.627275283179749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.922655855538643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.129800476904961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.552658561389393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.471747945550348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.566884599153497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.394881163915144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.670637710826249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.211991775413786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.518480643592888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.024459504760244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D2E-4FE1-A081-E105D28588B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$J$21:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$21:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37.172003435238352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.172003435238352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.172003435238352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D2E-4FE1-A081-E105D28588B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408519200"/>
+        <c:axId val="408517120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408519200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>f[kHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48606217344026975"/>
+              <c:y val="0.90416156019457805"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408517120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="408517120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>20 log│vo/vs│</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408519200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Układ D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3040232957755403E-2"/>
+          <c:y val="0.11174045856100319"/>
+          <c:w val="0.82141611841374951"/>
+          <c:h val="0.78980902652619145"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20 log10│vo/vs│</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$8:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$P$8:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EDD-4254-8B77-2D8D06D18854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$N$21:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$P$21:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.268559871258745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.268559871258745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.268559871258745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EDD-4254-8B77-2D8D06D18854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408519200"/>
+        <c:axId val="408517120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408519200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>f[kHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48606217344026975"/>
+              <c:y val="0.90416156019457805"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408517120"/>
@@ -1370,7 +3330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1408,7 +3368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408519200"/>
@@ -1423,47 +3383,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.84708101053727403"/>
-          <c:y val="0.37420793897637117"/>
-          <c:w val="0.14341611240814917"/>
-          <c:h val="0.29973806801992464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1497,7 +3416,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1508,10 +3427,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1543,7 +3462,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Układ B</a:t>
+              <a:t>Układ E</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1573,7 +3492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1584,10 +3503,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9869525386097397E-2"/>
+          <c:x val="9.1468062574336303E-2"/>
           <c:y val="0.11174045856100319"/>
-          <c:w val="0.77608281290391745"/>
-          <c:h val="0.75275062908303214"/>
+          <c:w val="0.83506673132335296"/>
+          <c:h val="0.77454968640253763"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1670,45 +3589,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$8:$H$19</c:f>
+              <c:f>Arkusz1!$T$8:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-8.6272752831797472</c:v>
+                  <c:v>30.808061805277404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.970624317053016</c:v>
+                  <c:v>38.251317577516424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.3930937599294</c:v>
+                  <c:v>40.226930198338493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.583624920952499</c:v>
+                  <c:v>41.678900716873777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.951058722373347</c:v>
+                  <c:v>42.191967925662382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.303577986382873</c:v>
+                  <c:v>42.604782813048089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.278867046136735</c:v>
+                  <c:v>42.563041891294908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.103893568250857</c:v>
+                  <c:v>42.376572121793629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.421267116508908</c:v>
+                  <c:v>41.519522123448269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.032110534308369</c:v>
+                  <c:v>40.202006538086515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.416375079047505</c:v>
+                  <c:v>38.61838161713402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.310924976981383</c:v>
+                  <c:v>33.571438656657641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,7 +3635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC49-4E10-954D-2E8CF1AE97BF}"/>
+              <c16:uniqueId val="{00000000-1C56-4591-83E5-2E36DFACDCDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1752,36 +3671,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$21:$F$23</c:f>
+              <c:f>Arkusz1!$R$21:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.028</c:v>
+                  <c:v>3.4540000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.03</c:v>
+                  <c:v>52.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>860</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$21:$H$23</c:f>
+              <c:f>Arkusz1!$T$21:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.298888314251695</c:v>
+                  <c:v>38.655707406329007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.298888314251695</c:v>
+                  <c:v>41.655707406329007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.298888314251695</c:v>
+                  <c:v>38.655707406329007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +3708,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC49-4E10-954D-2E8CF1AE97BF}"/>
+              <c16:uniqueId val="{00000001-1C56-4591-83E5-2E36DFACDCDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1809,8 +3728,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0.1"/>
+          <c:max val="2000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1887,7 +3806,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1925,7 +3844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408517120"/>
@@ -1936,6 +3855,7 @@
         <c:axId val="408517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2004,7 +3924,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2042,7 +3962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408519200"/>
@@ -2057,47 +3977,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.84708101053727403"/>
-          <c:y val="0.37420793897637117"/>
-          <c:w val="0.14341611240814917"/>
-          <c:h val="0.29973806801992464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2131,1909 +4010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Układ C</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9869525386097397E-2"/>
-          <c:y val="0.11174045856100319"/>
-          <c:w val="0.77608281290391745"/>
-          <c:h val="0.75275062908303214"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>20 log10│vo/vs│</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$8:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$L$8:$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>22.459998374738266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.251717574705012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.547098147063906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.754242768430231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.177100852914656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40.096190237075611</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.191326890678766</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.019323455440407</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.295080002351519</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.836434066939049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.14292293511815</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.648901796285514</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D2E-4FE1-A081-E105D28588B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$J$21:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>840</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$L$21:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>37.228871240441492</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.228871240441492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.228871240441492</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D2E-4FE1-A081-E105D28588B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="408519200"/>
-        <c:axId val="408517120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="408519200"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0.1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>f[kHz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48606217344026975"/>
-              <c:y val="0.90416156019457805"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408517120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="408517120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>20 log│vo/vs│</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408519200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.84708101053727403"/>
-          <c:y val="0.37420793897637117"/>
-          <c:w val="0.14341611240814917"/>
-          <c:h val="0.29973806801992464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Układ D</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9869525386097397E-2"/>
-          <c:y val="0.11174045856100319"/>
-          <c:w val="0.77608281290391745"/>
-          <c:h val="0.75275062908303214"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>20 log10│vo/vs│</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$8:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$P$8:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-1.6413386857022605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3792612275773637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.20055336810735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.176842955602094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.908497311042247</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.828145897703763</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.285403556893847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.160783203432892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.400446471932391</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.038647045065474</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.267106701279577</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.816901373699871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EDD-4254-8B77-2D8D06D18854}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$N$21:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>14.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>830</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$P$21:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32.285017508775468</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.285017508775468</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.285017508775468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0EDD-4254-8B77-2D8D06D18854}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="408519200"/>
-        <c:axId val="408517120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="408519200"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0.1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>f[kHz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48606217344026975"/>
-              <c:y val="0.90416156019457805"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408517120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="408517120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>20 log│vo/vs│</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408519200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.84708101053727403"/>
-          <c:y val="0.37420793897637117"/>
-          <c:w val="0.14341611240814917"/>
-          <c:h val="0.29973806801992464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Układ E</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9869525386097397E-2"/>
-          <c:y val="0.11174045856100319"/>
-          <c:w val="0.77608281290391745"/>
-          <c:h val="0.75275062908303214"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>20 log10│vo/vs│</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$8:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$8:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>29.887804149378002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.331059921617019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.306672542439088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.758643060974372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.271710269762984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.684525157148684</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.642784235395503</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.456314465894224</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.599264467548863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.281748882187117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.698123961234614</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.651181000758235</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C56-4591-83E5-2E36DFACDCDB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>wzmocnienie w środku pasma i częstotliwości graniczne górna i dolna</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$R$21:$R$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.4540000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$T$21:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>38.705097822077533</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.705097822077533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.705097822077533</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C56-4591-83E5-2E36DFACDCDB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="408519200"/>
-        <c:axId val="408517120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="408519200"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="0.1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>f[kHz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48606217344026975"/>
-              <c:y val="0.90416156019457805"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408517120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="408517120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>20 log│vo/vs│</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408519200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.84708101053727403"/>
-          <c:y val="0.37420793897637117"/>
-          <c:w val="0.14341611240814917"/>
-          <c:h val="0.29973806801992464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6828,16 +6805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504266</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280150</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>178175</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6906,14 +6883,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381002</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>110940</xdr:rowOff>
+      <xdr:rowOff>77322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7020,9 +6997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7060,7 +7037,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7166,7 +7143,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7308,7 +7285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7318,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EC5E9-E0C8-4C3F-9331-94AADD43A3C1}">
   <dimension ref="A5:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30:AI70"/>
+    <sheetView tabSelected="1" topLeftCell="W28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7349,36 +7326,36 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -7511,69 +7488,66 @@
       <c r="B8">
         <v>84</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="19">
         <f>B8/B$31</f>
-        <v>23.863636363636363</v>
-      </c>
-      <c r="D8" s="23">
-        <f>20*LOG(C8)</f>
-        <v>27.554732451675012</v>
-      </c>
-      <c r="E8" s="23">
+        <v>21.265822784810126</v>
+      </c>
+      <c r="D8" s="19">
+        <v>28.56</v>
+      </c>
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <v>10</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="19">
         <f>F8/C$31</f>
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="H8" s="23">
-        <f>20*LOG(G8)</f>
-        <v>-8.6272752831797472</v>
-      </c>
-      <c r="I8" s="23">
+        <v>0.29498525073746312</v>
+      </c>
+      <c r="H8" s="19">
+        <v>12.36</v>
+      </c>
+      <c r="I8" s="19">
         <v>1</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="19">
         <v>59.6</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="19">
         <f>J8/D$31</f>
-        <v>13.273942093541203</v>
-      </c>
-      <c r="L8" s="23">
+        <v>13.860465116279071</v>
+      </c>
+      <c r="L8" s="19">
         <f>20*LOG(K8)</f>
-        <v>22.459998374738266</v>
-      </c>
-      <c r="M8" s="23">
+        <v>22.835556083213</v>
+      </c>
+      <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="19">
         <v>5</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="19">
         <f>N8/E$31</f>
-        <v>0.82781456953642385</v>
-      </c>
-      <c r="P8" s="23">
-        <f>20*LOG(O8)</f>
-        <v>-1.6413386857022605</v>
-      </c>
-      <c r="Q8" s="23">
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="P8" s="19">
+        <v>1.93</v>
+      </c>
+      <c r="Q8" s="19">
         <v>1</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="19">
         <v>118</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="19">
         <f>R8/F$31</f>
-        <v>31.216931216931219</v>
-      </c>
-      <c r="T8" s="23">
+        <v>34.705882352941174</v>
+      </c>
+      <c r="T8" s="19">
         <f>20*LOG(S8)</f>
-        <v>29.887804149378002</v>
+        <v>30.808061805277404</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -7583,69 +7557,66 @@
       <c r="B9">
         <v>158</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <f t="shared" ref="C9:C19" si="0">B9/B$31</f>
-        <v>44.886363636363633</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" ref="D9:D19" si="1">20*LOG(C9)</f>
-        <v>33.042288469525836</v>
-      </c>
-      <c r="E9" s="23">
+        <v>40</v>
+      </c>
+      <c r="D9" s="19">
+        <v>33.99</v>
+      </c>
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>190.5</v>
       </c>
-      <c r="G9" s="23">
-        <f t="shared" ref="G9:G19" si="2">F9/C$31</f>
-        <v>7.0555555555555554</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" ref="H9:H19" si="3">20*LOG(G9)</f>
-        <v>16.970624317053016</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="G9" s="19">
+        <f t="shared" ref="G9:G19" si="1">F9/C$31</f>
+        <v>5.6194690265486731</v>
+      </c>
+      <c r="H9" s="19">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="I9" s="19">
         <v>2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="19">
         <v>116.1</v>
       </c>
-      <c r="K9" s="23">
-        <f t="shared" ref="K9:K19" si="4">J9/D$31</f>
-        <v>25.857461024498885</v>
-      </c>
-      <c r="L9" s="23">
-        <f t="shared" ref="L9:L19" si="5">20*LOG(K9)</f>
-        <v>28.251717574705012</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="K9" s="19">
+        <f t="shared" ref="K9:K19" si="2">J9/D$31</f>
+        <v>27</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" ref="L9:L19" si="3">20*LOG(K9)</f>
+        <v>28.627275283179749</v>
+      </c>
+      <c r="M9" s="19">
         <v>2</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="19">
         <v>10</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" ref="O9:O19" si="6">N9/E$31</f>
-        <v>1.6556291390728477</v>
-      </c>
-      <c r="P9" s="23">
-        <f t="shared" ref="P9:P19" si="7">20*LOG(O9)</f>
-        <v>4.3792612275773637</v>
-      </c>
-      <c r="Q9" s="23">
+      <c r="O9" s="19">
+        <f t="shared" ref="O9:O19" si="4">N9/E$31</f>
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="P9" s="19">
+        <v>12.67</v>
+      </c>
+      <c r="Q9" s="19">
         <v>2</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="19">
         <v>278</v>
       </c>
-      <c r="S9" s="23">
-        <f t="shared" ref="S9:S19" si="8">R9/F$31</f>
-        <v>73.544973544973544</v>
-      </c>
-      <c r="T9" s="23">
-        <f t="shared" ref="T9:T19" si="9">20*LOG(S9)</f>
-        <v>37.331059921617019</v>
+      <c r="S9" s="19">
+        <f t="shared" ref="S9:S19" si="5">R9/F$31</f>
+        <v>81.764705882352942</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" ref="T9:T19" si="6">20*LOG(S9)</f>
+        <v>38.251317577516424</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7655,69 +7626,66 @@
       <c r="B10">
         <v>260</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>73.86363636363636</v>
-      </c>
-      <c r="D10" s="23">
+        <v>65.822784810126578</v>
+      </c>
+      <c r="D10" s="19">
+        <v>38.33</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>282.5</v>
+      </c>
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
-        <v>37.368613689853738</v>
-      </c>
-      <c r="E10" s="23">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20.34</v>
+      </c>
+      <c r="I10" s="19">
         <v>4</v>
       </c>
-      <c r="F10" s="23">
-        <v>282.5</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="J10" s="19">
+        <v>213.6</v>
+      </c>
+      <c r="K10" s="19">
         <f t="shared" si="2"/>
-        <v>10.462962962962964</v>
-      </c>
-      <c r="H10" s="23">
+        <v>49.674418604651166</v>
+      </c>
+      <c r="L10" s="19">
         <f t="shared" si="3"/>
-        <v>20.3930937599294</v>
-      </c>
-      <c r="I10" s="23">
+        <v>33.922655855538643</v>
+      </c>
+      <c r="M10" s="19">
         <v>4</v>
       </c>
-      <c r="J10" s="23">
-        <v>213.6</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="N10" s="19">
+        <v>39</v>
+      </c>
+      <c r="O10" s="19">
         <f t="shared" si="4"/>
-        <v>47.572383073496653</v>
-      </c>
-      <c r="L10" s="23">
+        <v>4.9367088607594933</v>
+      </c>
+      <c r="P10" s="19">
+        <v>21.73</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>4</v>
+      </c>
+      <c r="R10" s="19">
+        <v>349</v>
+      </c>
+      <c r="S10" s="19">
         <f t="shared" si="5"/>
-        <v>33.547098147063906</v>
-      </c>
-      <c r="M10" s="23">
-        <v>4</v>
-      </c>
-      <c r="N10" s="23">
-        <v>39</v>
-      </c>
-      <c r="O10" s="23">
+        <v>102.64705882352942</v>
+      </c>
+      <c r="T10" s="19">
         <f t="shared" si="6"/>
-        <v>6.4569536423841063</v>
-      </c>
-      <c r="P10" s="23">
-        <f t="shared" si="7"/>
-        <v>16.20055336810735</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>4</v>
-      </c>
-      <c r="R10" s="23">
-        <v>349</v>
-      </c>
-      <c r="S10" s="23">
-        <f t="shared" si="8"/>
-        <v>92.328042328042329</v>
-      </c>
-      <c r="T10" s="23">
-        <f t="shared" si="9"/>
-        <v>39.306672542439088</v>
+        <v>40.226930198338493</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -7727,69 +7695,66 @@
       <c r="B11">
         <v>330</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-      <c r="D11" s="23">
+        <v>83.544303797468345</v>
+      </c>
+      <c r="D11" s="19">
+        <v>40.43</v>
+      </c>
+      <c r="E11" s="19">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19">
+        <v>324</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
-        <v>39.439425527995134</v>
-      </c>
-      <c r="E11" s="23">
+        <v>9.557522123893806</v>
+      </c>
+      <c r="H11" s="19">
+        <v>21.58</v>
+      </c>
+      <c r="I11" s="19">
         <v>7</v>
       </c>
-      <c r="F11" s="23">
-        <v>324</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="J11" s="19">
+        <v>309</v>
+      </c>
+      <c r="K11" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H11" s="23">
+        <v>71.860465116279073</v>
+      </c>
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
-        <v>21.583624920952499</v>
-      </c>
-      <c r="I11" s="23">
+        <v>37.129800476904961</v>
+      </c>
+      <c r="M11" s="19">
         <v>7</v>
       </c>
-      <c r="J11" s="23">
-        <v>309</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="N11" s="19">
+        <v>138</v>
+      </c>
+      <c r="O11" s="19">
         <f t="shared" si="4"/>
-        <v>68.819599109131403</v>
-      </c>
-      <c r="L11" s="23">
+        <v>17.468354430379748</v>
+      </c>
+      <c r="P11" s="19">
+        <v>27.29</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>7</v>
+      </c>
+      <c r="R11" s="19">
+        <v>412.5</v>
+      </c>
+      <c r="S11" s="19">
         <f t="shared" si="5"/>
-        <v>36.754242768430231</v>
-      </c>
-      <c r="M11" s="23">
-        <v>7</v>
-      </c>
-      <c r="N11" s="23">
-        <v>138</v>
-      </c>
-      <c r="O11" s="23">
+        <v>121.32352941176471</v>
+      </c>
+      <c r="T11" s="19">
         <f t="shared" si="6"/>
-        <v>22.847682119205299</v>
-      </c>
-      <c r="P11" s="23">
-        <f t="shared" si="7"/>
-        <v>27.176842955602094</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>7</v>
-      </c>
-      <c r="R11" s="23">
-        <v>412.5</v>
-      </c>
-      <c r="S11" s="23">
-        <f t="shared" si="8"/>
-        <v>109.12698412698413</v>
-      </c>
-      <c r="T11" s="23">
-        <f t="shared" si="9"/>
-        <v>40.758643060974372</v>
+        <v>41.678900716873777</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -7799,69 +7764,66 @@
       <c r="B12">
         <v>362</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>102.84090909090909</v>
-      </c>
-      <c r="D12" s="23">
+        <v>91.645569620253156</v>
+      </c>
+      <c r="D12" s="19">
+        <v>41.17</v>
+      </c>
+      <c r="E12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>338</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
-        <v>40.243318141100694</v>
-      </c>
-      <c r="E12" s="23">
+        <v>9.9705014749262535</v>
+      </c>
+      <c r="H12" s="19">
+        <v>21.93</v>
+      </c>
+      <c r="I12" s="19">
         <v>10</v>
       </c>
-      <c r="F12" s="23">
-        <v>338</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="J12" s="19">
+        <v>364</v>
+      </c>
+      <c r="K12" s="19">
         <f t="shared" si="2"/>
-        <v>12.518518518518519</v>
-      </c>
-      <c r="H12" s="23">
+        <v>84.651162790697683</v>
+      </c>
+      <c r="L12" s="19">
         <f t="shared" si="3"/>
-        <v>21.951058722373347</v>
-      </c>
-      <c r="I12" s="23">
+        <v>38.552658561389393</v>
+      </c>
+      <c r="M12" s="19">
         <v>10</v>
       </c>
-      <c r="J12" s="23">
-        <v>364</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="N12" s="19">
+        <v>189</v>
+      </c>
+      <c r="O12" s="19">
         <f t="shared" si="4"/>
-        <v>81.069042316258347</v>
-      </c>
-      <c r="L12" s="23">
+        <v>23.924050632911392</v>
+      </c>
+      <c r="P12" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>10</v>
+      </c>
+      <c r="R12" s="19">
+        <v>437.6</v>
+      </c>
+      <c r="S12" s="19">
         <f t="shared" si="5"/>
-        <v>38.177100852914656</v>
-      </c>
-      <c r="M12" s="23">
-        <v>10</v>
-      </c>
-      <c r="N12" s="23">
-        <v>189</v>
-      </c>
-      <c r="O12" s="23">
+        <v>128.70588235294119</v>
+      </c>
+      <c r="T12" s="19">
         <f t="shared" si="6"/>
-        <v>31.29139072847682</v>
-      </c>
-      <c r="P12" s="23">
-        <f t="shared" si="7"/>
-        <v>29.908497311042247</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>10</v>
-      </c>
-      <c r="R12" s="23">
-        <v>437.6</v>
-      </c>
-      <c r="S12" s="23">
-        <f t="shared" si="8"/>
-        <v>115.76719576719577</v>
-      </c>
-      <c r="T12" s="23">
-        <f t="shared" si="9"/>
-        <v>41.271710269762984</v>
+        <v>42.191967925662382</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7871,69 +7833,66 @@
       <c r="B13">
         <v>405</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>115.05681818181819</v>
-      </c>
-      <c r="D13" s="23">
+        <v>102.53164556962025</v>
+      </c>
+      <c r="D13" s="19">
+        <v>41.92</v>
+      </c>
+      <c r="E13" s="19">
+        <v>40</v>
+      </c>
+      <c r="F13" s="19">
+        <v>352</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>41.21824719473075</v>
-      </c>
-      <c r="E13" s="23">
+        <v>10.383480825958703</v>
+      </c>
+      <c r="H13" s="19">
+        <v>22.27</v>
+      </c>
+      <c r="I13" s="19">
         <v>40</v>
       </c>
-      <c r="F13" s="23">
-        <v>352</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="J13" s="19">
+        <v>454</v>
+      </c>
+      <c r="K13" s="19">
         <f t="shared" si="2"/>
-        <v>13.037037037037036</v>
-      </c>
-      <c r="H13" s="23">
+        <v>105.58139534883722</v>
+      </c>
+      <c r="L13" s="19">
         <f t="shared" si="3"/>
-        <v>22.303577986382873</v>
-      </c>
-      <c r="I13" s="23">
+        <v>40.471747945550348</v>
+      </c>
+      <c r="M13" s="19">
         <v>40</v>
       </c>
-      <c r="J13" s="23">
-        <v>454</v>
-      </c>
-      <c r="K13" s="23">
+      <c r="N13" s="19">
+        <v>333</v>
+      </c>
+      <c r="O13" s="19">
         <f t="shared" si="4"/>
-        <v>101.11358574610244</v>
-      </c>
-      <c r="L13" s="23">
+        <v>42.151898734177216</v>
+      </c>
+      <c r="P13" s="19">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>40</v>
+      </c>
+      <c r="R13" s="19">
+        <v>458.9</v>
+      </c>
+      <c r="S13" s="19">
         <f t="shared" si="5"/>
-        <v>40.096190237075611</v>
-      </c>
-      <c r="M13" s="23">
-        <v>40</v>
-      </c>
-      <c r="N13" s="23">
-        <v>333</v>
-      </c>
-      <c r="O13" s="23">
+        <v>134.97058823529412</v>
+      </c>
+      <c r="T13" s="19">
         <f t="shared" si="6"/>
-        <v>55.132450331125824</v>
-      </c>
-      <c r="P13" s="23">
-        <f t="shared" si="7"/>
-        <v>34.828145897703763</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>40</v>
-      </c>
-      <c r="R13" s="23">
-        <v>458.9</v>
-      </c>
-      <c r="S13" s="23">
-        <f t="shared" si="8"/>
-        <v>121.40211640211641</v>
-      </c>
-      <c r="T13" s="23">
-        <f t="shared" si="9"/>
-        <v>41.684525157148684</v>
+        <v>42.604782813048089</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -7943,69 +7902,66 @@
       <c r="B14">
         <v>387</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>109.94318181818181</v>
-      </c>
-      <c r="D14" s="23">
+        <v>97.974683544303787</v>
+      </c>
+      <c r="D14" s="19">
+        <v>41.87</v>
+      </c>
+      <c r="E14" s="19">
+        <v>100</v>
+      </c>
+      <c r="F14" s="19">
+        <v>351</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
-        <v>40.823366030815606</v>
-      </c>
-      <c r="E14" s="23">
+        <v>10.353982300884956</v>
+      </c>
+      <c r="H14" s="19">
+        <v>22.24</v>
+      </c>
+      <c r="I14" s="19">
         <v>100</v>
       </c>
-      <c r="F14" s="23">
+      <c r="J14" s="19">
+        <v>459</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="2"/>
+        <v>106.74418604651163</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="3"/>
+        <v>40.566884599153497</v>
+      </c>
+      <c r="M14" s="19">
+        <v>100</v>
+      </c>
+      <c r="N14" s="19">
         <v>351</v>
       </c>
-      <c r="G14" s="23">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H14" s="23">
-        <f t="shared" si="3"/>
-        <v>22.278867046136735</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="O14" s="19">
+        <f t="shared" si="4"/>
+        <v>44.430379746835442</v>
+      </c>
+      <c r="P14" s="19">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="Q14" s="19">
         <v>100</v>
       </c>
-      <c r="J14" s="23">
-        <v>459</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="4"/>
-        <v>102.22717149220489</v>
-      </c>
-      <c r="L14" s="23">
+      <c r="R14" s="19">
+        <v>456.7</v>
+      </c>
+      <c r="S14" s="19">
         <f t="shared" si="5"/>
-        <v>40.191326890678766</v>
-      </c>
-      <c r="M14" s="23">
-        <v>100</v>
-      </c>
-      <c r="N14" s="23">
-        <v>351</v>
-      </c>
-      <c r="O14" s="23">
+        <v>134.3235294117647</v>
+      </c>
+      <c r="T14" s="19">
         <f t="shared" si="6"/>
-        <v>58.11258278145695</v>
-      </c>
-      <c r="P14" s="23">
-        <f t="shared" si="7"/>
-        <v>35.285403556893847</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>100</v>
-      </c>
-      <c r="R14" s="23">
-        <v>456.7</v>
-      </c>
-      <c r="S14" s="23">
-        <f t="shared" si="8"/>
-        <v>120.82010582010582</v>
-      </c>
-      <c r="T14" s="23">
-        <f t="shared" si="9"/>
-        <v>41.642784235395503</v>
+        <v>42.563041891294908</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -8015,69 +7971,66 @@
       <c r="B15">
         <v>356</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
-        <v>101.13636363636364</v>
-      </c>
-      <c r="D15" s="23">
+        <v>90.12658227848101</v>
+      </c>
+      <c r="D15" s="19">
+        <v>41.02</v>
+      </c>
+      <c r="E15" s="19">
+        <v>200</v>
+      </c>
+      <c r="F15" s="19">
+        <v>344</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="1"/>
-        <v>40.098146689894882</v>
-      </c>
-      <c r="E15" s="23">
+        <v>10.147492625368733</v>
+      </c>
+      <c r="H15" s="19">
+        <v>22</v>
+      </c>
+      <c r="I15" s="19">
         <v>200</v>
       </c>
-      <c r="F15" s="23">
-        <v>344</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="J15" s="19">
+        <v>450</v>
+      </c>
+      <c r="K15" s="19">
         <f t="shared" si="2"/>
-        <v>12.74074074074074</v>
-      </c>
-      <c r="H15" s="23">
+        <v>104.65116279069768</v>
+      </c>
+      <c r="L15" s="19">
         <f t="shared" si="3"/>
-        <v>22.103893568250857</v>
-      </c>
-      <c r="I15" s="23">
+        <v>40.394881163915144</v>
+      </c>
+      <c r="M15" s="19">
         <v>200</v>
       </c>
-      <c r="J15" s="23">
-        <v>450</v>
-      </c>
-      <c r="K15" s="23">
+      <c r="N15" s="19">
+        <v>346</v>
+      </c>
+      <c r="O15" s="19">
         <f t="shared" si="4"/>
-        <v>100.22271714922049</v>
-      </c>
-      <c r="L15" s="23">
+        <v>43.797468354430379</v>
+      </c>
+      <c r="P15" s="19">
+        <v>35.22</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>200</v>
+      </c>
+      <c r="R15" s="19">
+        <v>447</v>
+      </c>
+      <c r="S15" s="19">
         <f t="shared" si="5"/>
-        <v>40.019323455440407</v>
-      </c>
-      <c r="M15" s="23">
-        <v>200</v>
-      </c>
-      <c r="N15" s="23">
-        <v>346</v>
-      </c>
-      <c r="O15" s="23">
+        <v>131.47058823529412</v>
+      </c>
+      <c r="T15" s="19">
         <f t="shared" si="6"/>
-        <v>57.284768211920529</v>
-      </c>
-      <c r="P15" s="23">
-        <f t="shared" si="7"/>
-        <v>35.160783203432892</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>200</v>
-      </c>
-      <c r="R15" s="23">
-        <v>447</v>
-      </c>
-      <c r="S15" s="23">
-        <f t="shared" si="8"/>
-        <v>118.25396825396825</v>
-      </c>
-      <c r="T15" s="23">
-        <f t="shared" si="9"/>
-        <v>41.456314465894224</v>
+        <v>42.376572121793629</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -8087,69 +8040,66 @@
       <c r="B16">
         <v>276</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
-        <v>78.409090909090907</v>
-      </c>
-      <c r="D16" s="23">
+        <v>69.87341772151899</v>
+      </c>
+      <c r="D16" s="19">
+        <v>38.57</v>
+      </c>
+      <c r="E16" s="19">
+        <v>400</v>
+      </c>
+      <c r="F16" s="19">
+        <v>318</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
-        <v>37.887328371741738</v>
-      </c>
-      <c r="E16" s="23">
+        <v>9.3805309734513287</v>
+      </c>
+      <c r="H16" s="19">
+        <v>21.4</v>
+      </c>
+      <c r="I16" s="19">
         <v>400</v>
       </c>
-      <c r="F16" s="23">
-        <v>318</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="J16" s="19">
+        <v>414</v>
+      </c>
+      <c r="K16" s="19">
         <f t="shared" si="2"/>
-        <v>11.777777777777779</v>
-      </c>
-      <c r="H16" s="23">
+        <v>96.279069767441868</v>
+      </c>
+      <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>21.421267116508908</v>
-      </c>
-      <c r="I16" s="23">
+        <v>39.670637710826249</v>
+      </c>
+      <c r="M16" s="19">
         <v>400</v>
       </c>
-      <c r="J16" s="23">
-        <v>414</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="N16" s="19">
+        <v>317</v>
+      </c>
+      <c r="O16" s="19">
         <f t="shared" si="4"/>
-        <v>92.204899777282847</v>
-      </c>
-      <c r="L16" s="23">
+        <v>40.12658227848101</v>
+      </c>
+      <c r="P16" s="19">
+        <v>34.47</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>400</v>
+      </c>
+      <c r="R16" s="19">
+        <v>405</v>
+      </c>
+      <c r="S16" s="19">
         <f t="shared" si="5"/>
-        <v>39.295080002351519</v>
-      </c>
-      <c r="M16" s="23">
-        <v>400</v>
-      </c>
-      <c r="N16" s="23">
-        <v>317</v>
-      </c>
-      <c r="O16" s="23">
+        <v>119.11764705882354</v>
+      </c>
+      <c r="T16" s="19">
         <f t="shared" si="6"/>
-        <v>52.483443708609272</v>
-      </c>
-      <c r="P16" s="23">
-        <f t="shared" si="7"/>
-        <v>34.400446471932391</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>400</v>
-      </c>
-      <c r="R16" s="23">
-        <v>405</v>
-      </c>
-      <c r="S16" s="23">
-        <f t="shared" si="8"/>
-        <v>107.14285714285715</v>
-      </c>
-      <c r="T16" s="23">
-        <f t="shared" si="9"/>
-        <v>40.599264467548863</v>
+        <v>41.519522123448269</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -8159,69 +8109,66 @@
       <c r="B17">
         <v>197.6</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <f t="shared" si="0"/>
-        <v>56.136363636363633</v>
-      </c>
-      <c r="D17" s="23">
+        <v>50.025316455696199</v>
+      </c>
+      <c r="D17" s="19">
+        <v>35.19</v>
+      </c>
+      <c r="E17" s="19">
+        <v>700</v>
+      </c>
+      <c r="F17" s="19">
+        <v>271</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
-        <v>34.984885535469566</v>
-      </c>
-      <c r="E17" s="23">
+        <v>7.9941002949852509</v>
+      </c>
+      <c r="H17" s="19">
+        <v>19.97</v>
+      </c>
+      <c r="I17" s="19">
         <v>700</v>
       </c>
-      <c r="F17" s="23">
+      <c r="J17" s="19">
+        <v>350</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="2"/>
+        <v>81.395348837209312</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="3"/>
+        <v>38.211991775413786</v>
+      </c>
+      <c r="M17" s="19">
+        <v>700</v>
+      </c>
+      <c r="N17" s="19">
         <v>271</v>
       </c>
-      <c r="G17" s="23">
-        <f t="shared" si="2"/>
-        <v>10.037037037037036</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" si="3"/>
-        <v>20.032110534308369</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="O17" s="19">
+        <f t="shared" si="4"/>
+        <v>34.303797468354432</v>
+      </c>
+      <c r="P17" s="19">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="Q17" s="19">
         <v>700</v>
       </c>
-      <c r="J17" s="23">
-        <v>350</v>
-      </c>
-      <c r="K17" s="23">
-        <f t="shared" si="4"/>
-        <v>77.951002227171486</v>
-      </c>
-      <c r="L17" s="23">
+      <c r="R17" s="19">
+        <v>348</v>
+      </c>
+      <c r="S17" s="19">
         <f t="shared" si="5"/>
-        <v>37.836434066939049</v>
-      </c>
-      <c r="M17" s="23">
-        <v>700</v>
-      </c>
-      <c r="N17" s="23">
-        <v>271</v>
-      </c>
-      <c r="O17" s="23">
+        <v>102.35294117647059</v>
+      </c>
+      <c r="T17" s="19">
         <f t="shared" si="6"/>
-        <v>44.867549668874169</v>
-      </c>
-      <c r="P17" s="23">
-        <f t="shared" si="7"/>
-        <v>33.038647045065474</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>700</v>
-      </c>
-      <c r="R17" s="23">
-        <v>348</v>
-      </c>
-      <c r="S17" s="23">
-        <f t="shared" si="8"/>
-        <v>92.063492063492063</v>
-      </c>
-      <c r="T17" s="23">
-        <f t="shared" si="9"/>
-        <v>39.281748882187117</v>
+        <v>40.202006538086515</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -8231,69 +8178,66 @@
       <c r="B18">
         <v>146</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <f t="shared" si="0"/>
-        <v>41.477272727272727</v>
-      </c>
-      <c r="D18" s="23">
+        <v>36.962025316455694</v>
+      </c>
+      <c r="D18" s="19">
+        <v>32.47</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="19">
+        <v>225</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="1"/>
-        <v>32.356203846126121</v>
-      </c>
-      <c r="E18" s="23">
+        <v>6.6371681415929205</v>
+      </c>
+      <c r="H18" s="19">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I18" s="19">
         <v>1000</v>
       </c>
-      <c r="F18" s="23">
-        <v>225</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="J18" s="19">
+        <v>288</v>
+      </c>
+      <c r="K18" s="19">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="H18" s="23">
+        <v>66.976744186046517</v>
+      </c>
+      <c r="L18" s="19">
         <f t="shared" si="3"/>
-        <v>18.416375079047505</v>
-      </c>
-      <c r="I18" s="23">
+        <v>36.518480643592888</v>
+      </c>
+      <c r="M18" s="19">
         <v>1000</v>
       </c>
-      <c r="J18" s="23">
-        <v>288</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="N18" s="19">
+        <v>221</v>
+      </c>
+      <c r="O18" s="19">
         <f t="shared" si="4"/>
-        <v>64.142538975501111</v>
-      </c>
-      <c r="L18" s="23">
+        <v>27.974683544303797</v>
+      </c>
+      <c r="P18" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="19">
+        <v>290</v>
+      </c>
+      <c r="S18" s="19">
         <f t="shared" si="5"/>
-        <v>36.14292293511815</v>
-      </c>
-      <c r="M18" s="23">
-        <v>1000</v>
-      </c>
-      <c r="N18" s="23">
-        <v>221</v>
-      </c>
-      <c r="O18" s="23">
+        <v>85.294117647058826</v>
+      </c>
+      <c r="T18" s="19">
         <f t="shared" si="6"/>
-        <v>36.589403973509931</v>
-      </c>
-      <c r="P18" s="23">
-        <f t="shared" si="7"/>
-        <v>31.267106701279577</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>1000</v>
-      </c>
-      <c r="R18" s="23">
-        <v>290</v>
-      </c>
-      <c r="S18" s="23">
-        <f t="shared" si="8"/>
-        <v>76.719576719576722</v>
-      </c>
-      <c r="T18" s="23">
-        <f t="shared" si="9"/>
-        <v>37.698123961234614</v>
+        <v>38.61838161713402</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -8303,90 +8247,87 @@
       <c r="B19">
         <v>72</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <f t="shared" si="0"/>
-        <v>20.454545454545453</v>
-      </c>
-      <c r="D19" s="23">
+        <v>18.22784810126582</v>
+      </c>
+      <c r="D19" s="19">
+        <v>26.13</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="19">
+        <v>125</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="1"/>
-        <v>26.215796659062747</v>
-      </c>
-      <c r="E19" s="23">
+        <v>3.6873156342182893</v>
+      </c>
+      <c r="H19" s="19">
+        <v>13.33</v>
+      </c>
+      <c r="I19" s="19">
         <v>2000</v>
       </c>
-      <c r="F19" s="23">
-        <v>125</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="J19" s="19">
+        <v>153</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>4.6296296296296298</v>
-      </c>
-      <c r="H19" s="23">
+        <v>35.581395348837212</v>
+      </c>
+      <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>13.310924976981383</v>
-      </c>
-      <c r="I19" s="23">
+        <v>31.024459504760244</v>
+      </c>
+      <c r="M19" s="19">
         <v>2000</v>
       </c>
-      <c r="J19" s="23">
-        <v>153</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="N19" s="19">
+        <v>118</v>
+      </c>
+      <c r="O19" s="19">
         <f t="shared" si="4"/>
-        <v>34.075723830734965</v>
-      </c>
-      <c r="L19" s="23">
+        <v>14.936708860759493</v>
+      </c>
+      <c r="P19" s="19">
+        <v>25.67</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>2000</v>
+      </c>
+      <c r="R19" s="19">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="S19" s="19">
         <f t="shared" si="5"/>
-        <v>30.648901796285514</v>
-      </c>
-      <c r="M19" s="23">
-        <v>2000</v>
-      </c>
-      <c r="N19" s="23">
-        <v>118</v>
-      </c>
-      <c r="O19" s="23">
+        <v>47.705882352941174</v>
+      </c>
+      <c r="T19" s="19">
         <f t="shared" si="6"/>
-        <v>19.536423841059602</v>
-      </c>
-      <c r="P19" s="23">
-        <f t="shared" si="7"/>
-        <v>25.816901373699871</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>2000</v>
-      </c>
-      <c r="R19" s="23">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="S19" s="23">
-        <f t="shared" si="8"/>
-        <v>42.910052910052912</v>
-      </c>
-      <c r="T19" s="23">
-        <f t="shared" si="9"/>
-        <v>32.651181000758235</v>
+        <v>33.571438656657641</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -8397,7 +8338,7 @@
       </c>
       <c r="D21">
         <f>D22-3</f>
-        <v>38.458226317081603</v>
+        <v>38.924291706928109</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -8407,7 +8348,7 @@
       </c>
       <c r="H21">
         <f>H22-3</f>
-        <v>19.298888314251695</v>
+        <v>19.345425913115285</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -8417,7 +8358,7 @@
       </c>
       <c r="L21">
         <f>L22-3</f>
-        <v>37.228871240441492</v>
+        <v>37.172003435238352</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
@@ -8427,7 +8368,7 @@
       </c>
       <c r="P21">
         <f>P22-3</f>
-        <v>32.285017508775468</v>
+        <v>32.268559871258745</v>
       </c>
       <c r="Q21" t="s">
         <v>12</v>
@@ -8437,7 +8378,7 @@
       </c>
       <c r="T21">
         <f>T22-3</f>
-        <v>38.705097822077533</v>
+        <v>38.655707406329007</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -8449,11 +8390,11 @@
       </c>
       <c r="C22">
         <f>B36</f>
-        <v>118.28</v>
+        <v>124.8</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="10">20*LOG(C22)</f>
-        <v>41.458226317081603</v>
+        <f t="shared" ref="D22" si="7">20*LOG(C22)</f>
+        <v>41.924291706928109</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -8463,11 +8404,11 @@
       </c>
       <c r="G22">
         <f>C36</f>
-        <v>13.03</v>
+        <v>13.1</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="11">20*LOG(G22)</f>
-        <v>22.298888314251695</v>
+        <f t="shared" ref="H22" si="8">20*LOG(G22)</f>
+        <v>22.345425913115285</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -8477,11 +8418,11 @@
       </c>
       <c r="K22">
         <f>D36</f>
-        <v>102.67</v>
+        <v>102</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22" si="12">20*LOG(K22)</f>
-        <v>40.228871240441492</v>
+        <f t="shared" ref="L22" si="9">20*LOG(K22)</f>
+        <v>40.172003435238352</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -8491,11 +8432,11 @@
       </c>
       <c r="O22">
         <f>E36</f>
-        <v>58.11</v>
+        <v>58</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22" si="13">20*LOG(O22)</f>
-        <v>35.285017508775468</v>
+        <f t="shared" ref="P22" si="10">20*LOG(O22)</f>
+        <v>35.268559871258745</v>
       </c>
       <c r="Q22" t="s">
         <v>14</v>
@@ -8505,11 +8446,11 @@
       </c>
       <c r="S22">
         <f>F36</f>
-        <v>121.69</v>
+        <v>121</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22" si="14">20*LOG(S22)</f>
-        <v>41.705097822077533</v>
+        <f t="shared" ref="T22" si="11">20*LOG(S22)</f>
+        <v>41.655707406329007</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -8521,7 +8462,7 @@
       </c>
       <c r="D23">
         <f>D22-3</f>
-        <v>38.458226317081603</v>
+        <v>38.924291706928109</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -8531,7 +8472,7 @@
       </c>
       <c r="H23">
         <f>H22-3</f>
-        <v>19.298888314251695</v>
+        <v>19.345425913115285</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -8541,7 +8482,7 @@
       </c>
       <c r="L23">
         <f>L22-3</f>
-        <v>37.228871240441492</v>
+        <v>37.172003435238352</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -8551,7 +8492,7 @@
       </c>
       <c r="P23">
         <f>P22-3</f>
-        <v>32.285017508775468</v>
+        <v>32.268559871258745</v>
       </c>
       <c r="Q23" t="s">
         <v>13</v>
@@ -8561,7 +8502,7 @@
       </c>
       <c r="T23">
         <f>T22-3</f>
-        <v>38.705097822077533</v>
+        <v>38.655707406329007</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8615,22 +8556,22 @@
         <v>11</v>
       </c>
       <c r="R30" s="13"/>
-      <c r="S30" s="50" t="s">
+      <c r="S30" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="T30" s="51" t="s">
+      <c r="T30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="52" t="s">
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="52" t="s">
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="52" t="s">
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8639,19 +8580,19 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>3.52</v>
+        <v>3.95</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>33.9</v>
       </c>
       <c r="D31">
-        <v>4.49</v>
+        <v>4.3</v>
       </c>
       <c r="E31">
-        <v>6.04</v>
+        <v>7.9</v>
       </c>
       <c r="F31">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>22</v>
@@ -8661,77 +8602,77 @@
       </c>
       <c r="L31">
         <f>((B37/(B32-B37))*3000)-500</f>
-        <v>3212.7071823204419</v>
+        <v>3509.4786729857819</v>
       </c>
       <c r="M31">
         <f>((C37/(C32-C37))*500)-500</f>
-        <v>45.050385299347909</v>
+        <v>52.631578947368439</v>
       </c>
       <c r="N31">
         <f>((D37/(D32-D37))*2000)-500</f>
-        <v>1995.2759820984584</v>
+        <v>1924.2424242424245</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:P31" si="15">((E37/(E32-E37))*3000)-500</f>
-        <v>4025.0836120401345</v>
+        <f t="shared" ref="O31:P31" si="12">((E37/(E32-E37))*3000)-500</f>
+        <v>4153.409090909091</v>
       </c>
       <c r="P31">
-        <f t="shared" si="15"/>
-        <v>4881.818181818182</v>
+        <f t="shared" si="12"/>
+        <v>4972.9729729729734</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S31" s="22">
         <f>I34*(I40/(I39+I40))</f>
         <v>3.290322580645161</v>
       </c>
-      <c r="T31" s="32">
+      <c r="T31" s="23">
         <f>I34*(I40/(I39+I40))</f>
         <v>3.290322580645161</v>
       </c>
-      <c r="Y31" s="42" t="s">
+      <c r="Y31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z31" s="21">
         <f>(I45*I34)/(I43+I44+I45)</f>
         <v>3.220779220779221</v>
       </c>
-      <c r="AB31" s="48" t="s">
+      <c r="AB31" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="AC31" s="49">
+      <c r="AC31" s="37">
         <v>3.2902999999999998</v>
       </c>
-      <c r="AE31" s="42" t="s">
+      <c r="AE31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AF31" s="40">
+      <c r="AF31" s="29">
         <f>I34*(I40/(I39+I40))</f>
         <v>3.290322580645161</v>
       </c>
       <c r="AG31" s="13"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="30"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="21"/>
     </row>
     <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="C32">
-        <v>352.6</v>
+        <v>440</v>
       </c>
       <c r="D32">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E32">
-        <v>345</v>
+        <v>449</v>
       </c>
       <c r="F32">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>25</v>
@@ -8742,18 +8683,18 @@
       <c r="R32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S32" s="33">
+      <c r="S32">
         <f>((S31-0.7)/I42)*1000</f>
         <v>0.50790638836179625</v>
       </c>
-      <c r="T32" s="34">
+      <c r="T32" s="24">
         <f>((T31-0.7)/I42)*1000</f>
         <v>0.50790638836179625</v>
       </c>
-      <c r="Y32" s="43" t="s">
+      <c r="Y32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Z32" s="34">
+      <c r="Z32" s="24">
         <f>((I44+I45)*I34)/(I43+I44+I45)</f>
         <v>5.2467532467532472</v>
       </c>
@@ -8763,35 +8704,34 @@
       <c r="AC32" s="11">
         <v>5.0799999999999999E-4</v>
       </c>
-      <c r="AE32" s="43" t="s">
+      <c r="AE32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AF32" s="36">
+      <c r="AF32" s="25">
         <f>12*(I40/(I39+I40))</f>
         <v>3.290322580645161</v>
       </c>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="34"/>
+      <c r="AI32" s="24"/>
     </row>
     <row r="33" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33">
-        <v>4.8890000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="C33">
-        <v>3.028</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="E33">
-        <v>14.41</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>3.4540000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>26</v>
@@ -8802,18 +8742,18 @@
       <c r="R33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S33" s="33">
+      <c r="S33">
         <f>I31/S34/1000</f>
         <v>11.813200498132007</v>
       </c>
-      <c r="T33" s="34">
+      <c r="T33" s="24">
         <f>I31/T34/1000</f>
         <v>11.813200498132007</v>
       </c>
-      <c r="Y33" s="43" t="s">
+      <c r="Y33" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Z33" s="34">
+      <c r="Z33" s="24">
         <f>(Z31-0.7)/I42</f>
         <v>4.9427043544690607E-4</v>
       </c>
@@ -8823,35 +8763,34 @@
       <c r="AC33" s="12">
         <v>9.41</v>
       </c>
-      <c r="AE33" s="43" t="s">
+      <c r="AE33" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AF33" s="36">
+      <c r="AF33" s="25">
         <f>((AF31-0.7)/I42)</f>
         <v>5.079063883617962E-4</v>
       </c>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="34"/>
+      <c r="AI33" s="24"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34">
-        <v>42.53</v>
+        <v>40.25</v>
       </c>
       <c r="C34">
-        <v>51.03</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>78.3</v>
+        <v>79</v>
       </c>
       <c r="E34">
-        <v>109.36</v>
+        <v>108</v>
       </c>
       <c r="F34">
-        <v>52.89</v>
+        <v>52.8</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>27</v>
@@ -8862,18 +8801,18 @@
       <c r="R34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S34" s="33">
+      <c r="S34">
         <f>S32/25</f>
         <v>2.0316255534471851E-2</v>
       </c>
-      <c r="T34" s="34">
+      <c r="T34" s="24">
         <f>T32/25</f>
         <v>2.0316255534471851E-2</v>
       </c>
-      <c r="Y34" s="43" t="s">
+      <c r="Y34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="Z34" s="34">
+      <c r="Z34" s="24">
         <f>Z33</f>
         <v>4.9427043544690607E-4</v>
       </c>
@@ -8883,35 +8822,34 @@
       <c r="AC34" s="11">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="AE34" s="43" t="s">
+      <c r="AE34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="AF34" s="36">
+      <c r="AF34" s="25">
         <f>((AF32-0.7)/I42)</f>
         <v>5.079063883617962E-4</v>
       </c>
       <c r="AG34" s="9"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="34"/>
+      <c r="AI34" s="24"/>
     </row>
     <row r="35" spans="1:35" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C35">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="D35">
+        <v>830</v>
+      </c>
+      <c r="E35">
         <v>840</v>
       </c>
-      <c r="E35">
-        <v>830</v>
-      </c>
       <c r="F35">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>28</v>
@@ -8919,18 +8857,21 @@
       <c r="I35">
         <v>500</v>
       </c>
+      <c r="P35">
+        <f>S32*0.001</f>
+        <v>5.0790638836179631E-4</v>
+      </c>
       <c r="R35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34">
+      <c r="T35" s="24">
         <f>T29/(I31+1)</f>
         <v>49.017429452829901</v>
       </c>
-      <c r="Y35" s="43" t="s">
+      <c r="Y35" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Z35" s="34">
+      <c r="Z35" s="24">
         <f>Z32-0.7</f>
         <v>4.546753246753247</v>
       </c>
@@ -8940,15 +8881,15 @@
       <c r="AC35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AE35" s="43" t="s">
+      <c r="AE35" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AF35" s="34"/>
+      <c r="AF35" s="24"/>
       <c r="AG35" s="9"/>
-      <c r="AH35" s="44" t="s">
+      <c r="AH35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AI35" s="36">
+      <c r="AI35" s="25">
         <f>(((1/I39)+(1/I40)+(1/AF44))^-1)</f>
         <v>3481.1009174311935</v>
       </c>
@@ -8958,19 +8899,19 @@
         <v>16</v>
       </c>
       <c r="B36">
-        <v>118.28</v>
+        <v>124.8</v>
       </c>
       <c r="C36">
-        <v>13.03</v>
+        <v>13.1</v>
       </c>
       <c r="D36">
-        <v>102.67</v>
+        <v>102</v>
       </c>
       <c r="E36">
-        <v>58.11</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>121.69</v>
+        <v>121</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>29</v>
@@ -8981,15 +8922,14 @@
       <c r="R36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34">
+      <c r="T36" s="24">
         <f>240/241</f>
         <v>0.99585062240663902</v>
       </c>
-      <c r="Y36" s="43" t="s">
+      <c r="Y36" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Z36" s="34">
+      <c r="Z36" s="24">
         <f>I34-Z34*I41</f>
         <v>8.292971734148205</v>
       </c>
@@ -8999,32 +8939,31 @@
       <c r="AC36" s="12">
         <v>49.017429450000002</v>
       </c>
-      <c r="AE36" s="43" t="s">
+      <c r="AE36" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AF36" s="34"/>
+      <c r="AF36" s="24"/>
       <c r="AG36" s="9"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="34"/>
+      <c r="AI36" s="24"/>
     </row>
     <row r="37" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="C37">
-        <v>183.9</v>
+        <v>231</v>
       </c>
       <c r="D37">
-        <v>250.9</v>
+        <v>240</v>
       </c>
       <c r="E37">
-        <v>207.46</v>
+        <v>273</v>
       </c>
       <c r="F37">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>30</v>
@@ -9035,16 +8974,17 @@
       <c r="R37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="33">
+      <c r="S37" s="7">
+        <f>I34-(I41+I42)*P35</f>
+        <v>5.6003795066413664</v>
+      </c>
+      <c r="T37" s="24">
         <v>5.6003999999999996</v>
       </c>
-      <c r="T37" s="34">
-        <v>5.6003999999999996</v>
-      </c>
-      <c r="Y37" s="43" t="s">
+      <c r="Y37" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Z37" s="34">
+      <c r="Z37" s="24">
         <f>Z31-0.7</f>
         <v>2.5207792207792208</v>
       </c>
@@ -9054,13 +8994,12 @@
       <c r="AC37" s="12">
         <v>4075.9290059999998</v>
       </c>
-      <c r="AE37" s="43" t="s">
+      <c r="AE37" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AF37" s="34"/>
+      <c r="AF37" s="24"/>
       <c r="AG37" s="9"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="34"/>
+      <c r="AI37" s="24"/>
     </row>
     <row r="38" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H38" s="6" t="s">
@@ -9072,18 +9011,18 @@
       <c r="R38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S38" s="33">
+      <c r="S38">
         <f>(((I39*I40)/(I39+I40))*S33*1000)/(((I39*I40)/(I39+I40))+(S33*1000))</f>
         <v>3481.1009174311926</v>
       </c>
-      <c r="T38" s="34">
+      <c r="T38" s="24">
         <f>(I42*T35)/(I42+T35)</f>
         <v>48.550795104998905</v>
       </c>
-      <c r="Y38" s="43" t="s">
+      <c r="Y38" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Z38" s="34">
+      <c r="Z38" s="24">
         <f>Z32-0.7</f>
         <v>4.546753246753247</v>
       </c>
@@ -9093,13 +9032,12 @@
       <c r="AC38" s="12">
         <v>3.29</v>
       </c>
-      <c r="AE38" s="43" t="s">
+      <c r="AE38" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AF38" s="34"/>
+      <c r="AF38" s="24"/>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="34"/>
+      <c r="AI38" s="24"/>
     </row>
     <row r="39" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H39" s="6" t="s">
@@ -9111,18 +9049,18 @@
       <c r="R39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S39" s="33">
+      <c r="S39" s="7">
         <f>I41</f>
         <v>7500</v>
       </c>
-      <c r="T39" s="34">
+      <c r="T39" s="24">
         <f>I41</f>
         <v>7500</v>
       </c>
-      <c r="Y39" s="43" t="s">
+      <c r="Y39" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="34">
+      <c r="Z39" s="24">
         <f>Z35-Z37</f>
         <v>2.0259740259740262</v>
       </c>
@@ -9132,16 +9070,15 @@
       <c r="AC39" s="11">
         <v>5.0799999999999999E-4</v>
       </c>
-      <c r="AE39" s="43" t="s">
+      <c r="AE39" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AF39" s="36">
+      <c r="AF39" s="25">
         <f>I34-(I42*AF33)</f>
         <v>9.4096774193548391</v>
       </c>
       <c r="AG39" s="9"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="34"/>
+      <c r="AI39" s="24"/>
     </row>
     <row r="40" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H40" s="6" t="s">
@@ -9153,18 +9090,18 @@
       <c r="R40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="33">
+      <c r="S40" s="7">
         <f>((-S38)/(S38+I35))*S34*(1/((1/I41)+(1/I49)))</f>
         <v>-132.24318555663604</v>
       </c>
-      <c r="T40" s="34">
+      <c r="T40" s="24">
         <f>(T38/(T38+I35))*(T36/T35)*((I41*I49)/(I41+I49))</f>
         <v>13.385647160189091</v>
       </c>
-      <c r="Y40" s="43" t="s">
+      <c r="Y40" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Z40" s="34">
+      <c r="Z40" s="24">
         <f>Z36-Z38</f>
         <v>3.746218487394958</v>
       </c>
@@ -9174,16 +9111,15 @@
       <c r="AC40" s="12">
         <v>5.6</v>
       </c>
-      <c r="AE40" s="43" t="s">
+      <c r="AE40" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AF40" s="36">
+      <c r="AF40" s="25">
         <f>I34-((I41+I42)*AF34)</f>
         <v>5.6003795066413682</v>
       </c>
       <c r="AG40" s="9"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="34"/>
+      <c r="AI40" s="24"/>
     </row>
     <row r="41" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H41" s="6" t="s">
@@ -9195,17 +9131,17 @@
       <c r="R41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S41" s="35">
+      <c r="S41" s="7">
         <f>(S34/(2*3.14*I33))-I32</f>
         <v>1.7067150248908545E-11</v>
       </c>
-      <c r="T41" s="34">
+      <c r="T41" s="24">
         <v>1.7067150248908545E-11</v>
       </c>
-      <c r="Y41" s="43" t="s">
+      <c r="Y41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Z41" s="34">
+      <c r="Z41" s="24">
         <f>Z33/0.025</f>
         <v>1.977081741787624E-2</v>
       </c>
@@ -9215,16 +9151,15 @@
       <c r="AC41" s="12">
         <v>0.02</v>
       </c>
-      <c r="AE41" s="43" t="s">
+      <c r="AE41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AF41" s="34">
+      <c r="AF41" s="24">
         <f>AF33/0.025</f>
         <v>2.0316255534471847E-2</v>
       </c>
       <c r="AG41" s="9"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="34"/>
+      <c r="AI41" s="24"/>
     </row>
     <row r="42" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H42" s="6" t="s">
@@ -9236,15 +9171,15 @@
       <c r="R42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="7">
         <f>-S34*(((1/I41) + (1/I49))^-1)</f>
         <v>-151.23763425165149</v>
       </c>
-      <c r="T42" s="34"/>
-      <c r="Y42" s="43" t="s">
+      <c r="T42" s="24"/>
+      <c r="Y42" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="Z42" s="34">
+      <c r="Z42" s="24">
         <f>Z34/0.025</f>
         <v>1.977081741787624E-2</v>
       </c>
@@ -9254,16 +9189,15 @@
       <c r="AC42" s="12">
         <v>11813.200500000001</v>
       </c>
-      <c r="AE42" s="43" t="s">
+      <c r="AE42" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AF42" s="34">
+      <c r="AF42" s="24">
         <f>AF34/0.025</f>
         <v>2.0316255534471847E-2</v>
       </c>
       <c r="AG42" s="9"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="34"/>
+      <c r="AI42" s="24"/>
     </row>
     <row r="43" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H43" s="6" t="s">
@@ -9275,16 +9209,16 @@
       <c r="R43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S43" s="35">
+      <c r="S43" s="7">
         <f>I32*(1-S42)</f>
         <v>6.8506935413243169E-10</v>
       </c>
-      <c r="T43" s="34"/>
-      <c r="Y43" s="43" t="s">
+      <c r="T43" s="24"/>
+      <c r="Y43" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Z43" s="34">
-        <f>$I$31/Z41</f>
+      <c r="Z43" s="24">
+        <f>I31/Z41</f>
         <v>12139.103554868625</v>
       </c>
       <c r="AB43" s="10" t="s">
@@ -9293,16 +9227,15 @@
       <c r="AC43" s="12">
         <v>49.017429450000002</v>
       </c>
-      <c r="AE43" s="43" t="s">
+      <c r="AE43" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AF43" s="34">
-        <f t="shared" ref="AF43" si="16">$I$31/AF41</f>
+      <c r="AF43" s="24">
+        <f t="shared" ref="AF43" si="13">$I$31/AF41</f>
         <v>11813.200498132008</v>
       </c>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="34"/>
+      <c r="AI43" s="24"/>
     </row>
     <row r="44" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="6" t="s">
@@ -9314,16 +9247,16 @@
       <c r="R44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S44" s="35">
+      <c r="S44" s="7">
         <f>I32*(1-(1/S42))</f>
         <v>4.5297544987546698E-12</v>
       </c>
-      <c r="T44" s="34"/>
-      <c r="Y44" s="43" t="s">
+      <c r="T44" s="24"/>
+      <c r="Y44" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="34">
-        <f>$I$31/Z42</f>
+      <c r="Z44" s="24">
+        <f>I31/Z42</f>
         <v>12139.103554868625</v>
       </c>
       <c r="AB44" s="10" t="s">
@@ -9332,16 +9265,15 @@
       <c r="AC44" s="12">
         <v>48.55</v>
       </c>
-      <c r="AE44" s="43" t="s">
+      <c r="AE44" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AF44" s="34">
-        <f t="shared" ref="AF44" si="17">$I$31/AF42</f>
+      <c r="AF44" s="24">
+        <f t="shared" ref="AF44" si="14">$I$31/AF42</f>
         <v>11813.200498132008</v>
       </c>
       <c r="AG44" s="9"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="34"/>
+      <c r="AI44" s="24"/>
     </row>
     <row r="45" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="6" t="s">
@@ -9353,18 +9285,18 @@
       <c r="R45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S45" s="35">
+      <c r="S45" s="7">
         <f>(S43+S41)*((S38*I35/(S38+I35)))</f>
         <v>3.0697639676275027E-7</v>
       </c>
-      <c r="T45" s="36">
+      <c r="T45" s="25">
         <f>T41*(((1/T35)+(1/I42)+(1/I35))^-1)</f>
         <v>7.5528439859647071E-10</v>
       </c>
-      <c r="Y45" s="43" t="s">
+      <c r="Y45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Z45" s="34">
+      <c r="Z45" s="24">
         <f>(Z43/(I31+1))</f>
         <v>50.369724294060681</v>
       </c>
@@ -9374,16 +9306,15 @@
       <c r="AC45" s="11">
         <v>7500</v>
       </c>
-      <c r="AE45" s="43" t="s">
+      <c r="AE45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AF45" s="34">
+      <c r="AF45" s="24">
         <f>(AF43/(I31+1))</f>
         <v>49.017429452829909</v>
       </c>
       <c r="AG45" s="9"/>
-      <c r="AH45" s="33"/>
-      <c r="AI45" s="34"/>
+      <c r="AI45" s="24"/>
     </row>
     <row r="46" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="6" t="s">
@@ -9395,18 +9326,18 @@
       <c r="R46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="35">
+      <c r="S46" s="7">
         <f>(S44 +I50) * (((1/I41)+(1/I49))^-1)</f>
         <v>1.826036315043772E-7</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="25">
         <f>(I32+I50)*((I41*I49)/(I41+I49))</f>
         <v>1.8238213399503722E-7</v>
       </c>
-      <c r="Y46" s="43" t="s">
+      <c r="Y46" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Z46" s="34">
+      <c r="Z46" s="24">
         <f>(Z44/(I31+1))</f>
         <v>50.369724294060681</v>
       </c>
@@ -9416,16 +9347,15 @@
       <c r="AC46" s="11">
         <v>1.7100000000000001E-11</v>
       </c>
-      <c r="AE46" s="43" t="s">
+      <c r="AE46" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="AF46" s="34">
+      <c r="AF46" s="24">
         <f>(AF44/(I31+1))</f>
         <v>49.017429452829909</v>
       </c>
       <c r="AG46" s="9"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="34"/>
+      <c r="AI46" s="24"/>
     </row>
     <row r="47" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="6" t="s">
@@ -9437,12 +9367,11 @@
       <c r="R47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34"/>
-      <c r="Y47" s="43" t="s">
+      <c r="T47" s="24"/>
+      <c r="Y47" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Z47" s="36">
+      <c r="Z47" s="25">
         <f>(Z41/(2*3.14*I33))-I32</f>
         <v>1.6488128893711507E-11</v>
       </c>
@@ -9452,16 +9381,15 @@
       <c r="AC47" s="11">
         <v>1.7100000000000001E-11</v>
       </c>
-      <c r="AE47" s="43" t="s">
+      <c r="AE47" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AF47" s="36">
+      <c r="AF47" s="25">
         <f>(AF41/(2*3.14*I33))-I32</f>
         <v>1.7067150248908542E-11</v>
       </c>
       <c r="AG47" s="9"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="34"/>
+      <c r="AI47" s="24"/>
     </row>
     <row r="48" spans="1:35" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="6" t="s">
@@ -9473,18 +9401,18 @@
       <c r="R48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48">
         <f>(1/(2*3.14*SQRT((S45*S45)+(S46*S46))))</f>
         <v>445811.68739477737</v>
       </c>
-      <c r="T48" s="34">
+      <c r="T48" s="24">
         <f>1/(2*3.14*SQRT((T45*T45)+(T46*T46)))</f>
         <v>873080.60223704949</v>
       </c>
-      <c r="Y48" s="43" t="s">
+      <c r="Y48" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Z48" s="36">
+      <c r="Z48" s="25">
         <f>(Z41/(2*3.14*I33))-I32</f>
         <v>1.6488128893711507E-11</v>
       </c>
@@ -9494,18 +9422,18 @@
       <c r="AC48" s="12">
         <v>0.89073257049999999</v>
       </c>
-      <c r="AE48" s="43" t="s">
+      <c r="AE48" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AF48" s="36">
+      <c r="AF48" s="25">
         <f>(AF42/(2*3.14*I33))-I32</f>
         <v>1.7067150248908542E-11</v>
       </c>
       <c r="AG48" s="9"/>
-      <c r="AH48" s="44" t="s">
+      <c r="AH48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI48" s="34">
+      <c r="AI48" s="24">
         <f>AF49/(AF49+I35)</f>
         <v>0.90720493790368795</v>
       </c>
@@ -9520,18 +9448,18 @@
       <c r="R49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S49" s="7">
         <f>((((1/I39) + (1/I40) + (1/S29))^-1)+I35) * I46</f>
         <v>3.9811009174311927E-5</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="25">
         <f>I47*(I35+((I42*T35)/(I42+T35)))</f>
         <v>5.4855079510499885E-5</v>
       </c>
-      <c r="Y49" s="43" t="s">
+      <c r="Y49" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Z49" s="34">
+      <c r="Z49" s="24">
         <f>((1/I44)+(1/I45)+(1/Z43))^-1</f>
         <v>1999.6841103061538</v>
       </c>
@@ -9541,18 +9469,18 @@
       <c r="AC49" s="12">
         <v>0.49524011810000002</v>
       </c>
-      <c r="AE49" s="43" t="s">
+      <c r="AE49" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AF49" s="34">
+      <c r="AF49" s="24">
         <f>(1/I39+1/I40+1/(((1/I42+1/AI35)^-1)*(I31+1)+AF43))^-1</f>
         <v>4888.2177424597212</v>
       </c>
       <c r="AG49" s="9"/>
-      <c r="AH49" s="44" t="s">
+      <c r="AH49" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI49" s="36">
+      <c r="AI49" s="25">
         <f>((((1/I42)+(1/AI35))^-1)*(I31+1))/(((((1/I42)+(1/AI35))^-1)*(I31+1))+ AF43)</f>
         <v>0.97685605831162792</v>
       </c>
@@ -9567,18 +9495,18 @@
       <c r="R50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S50" s="35">
+      <c r="S50" s="7">
         <f>I48* (((1/I42)+ (1/(((((1/I39)+(1/I40)+(1/I35))^-1)+S29)/(I31+1))))^-1)</f>
         <v>5.0398264496863679E-3</v>
       </c>
-      <c r="T50" s="36">
+      <c r="T50" s="25">
         <f>I48*(((1/I39)+(1/I40)+(1/(((((1/I35)+(1/I42))^-1)+T35)*(I31+1))))^-1)</f>
         <v>0.47429070026911796</v>
       </c>
-      <c r="Y50" s="43" t="s">
+      <c r="Y50" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Z50" s="36">
+      <c r="Z50" s="25">
         <f>I41</f>
         <v>7500</v>
       </c>
@@ -9588,18 +9516,18 @@
       <c r="AC50" s="12">
         <v>151.2376342</v>
       </c>
-      <c r="AE50" s="43" t="s">
+      <c r="AE50" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AF50" s="36">
+      <c r="AF50" s="25">
         <f>I41</f>
         <v>7500</v>
       </c>
       <c r="AG50" s="9"/>
-      <c r="AH50" s="44" t="s">
+      <c r="AH50" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AI50" s="36">
+      <c r="AI50" s="25">
         <f>((((1/I41)+(1/I49))^-1)*AF42)</f>
         <v>151.23763425165146</v>
       </c>
@@ -9614,18 +9542,18 @@
       <c r="R51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S51" s="35">
+      <c r="S51" s="7">
         <f>I47*(I41+I49)</f>
         <v>0.10074999999999999</v>
       </c>
-      <c r="T51" s="36">
+      <c r="T51" s="25">
         <f>I47*(I41+I49)</f>
         <v>0.10074999999999999</v>
       </c>
-      <c r="Y51" s="43" t="s">
+      <c r="Y51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Z51" s="34">
+      <c r="Z51" s="24">
         <f>I31/(I31+1)</f>
         <v>0.99585062240663902</v>
       </c>
@@ -9635,33 +9563,32 @@
       <c r="AC51" s="12">
         <v>66.714928760000006</v>
       </c>
-      <c r="AE51" s="43" t="s">
+      <c r="AE51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AF51" s="34">
+      <c r="AF51" s="24">
         <f>I31/(I31+1)</f>
         <v>0.99585062240663902</v>
       </c>
       <c r="AG51" s="9"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="34"/>
+      <c r="AI51" s="24"/>
     </row>
     <row r="52" spans="2:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S52" s="33">
+      <c r="S52" s="7">
         <f>(1/(2*3.14))*SQRT(((1/(S49*S49))+(1/(S50*S50))+(1/(S51*S51))))</f>
         <v>3999.9149102664687</v>
       </c>
-      <c r="T52" s="34">
+      <c r="T52" s="24">
         <f>(1/(2*3.14))*(SQRT(((1/(T49*T49))+(1/(T50*T50))+(1/(T51*T51)))))</f>
         <v>2902.8431802130526</v>
       </c>
-      <c r="Y52" s="43" t="s">
+      <c r="Y52" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Z52" s="34">
+      <c r="Z52" s="24">
         <f>(-Z49/(Z49 + I35))*Z51*Z41*(((1/I41)+(1/I49))^-1)</f>
         <v>-117.24958096787151</v>
       </c>
@@ -9671,48 +9598,46 @@
       <c r="AC52" s="12">
         <v>478.33</v>
       </c>
-      <c r="AE52" s="43" t="s">
+      <c r="AE52" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AF52" s="36">
+      <c r="AF52" s="25">
         <f>AI48*AI49*AI50</f>
         <v>134.02809812484497</v>
       </c>
       <c r="AG52" s="9"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="34"/>
+      <c r="AI52" s="24"/>
     </row>
     <row r="53" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R53" s="41" t="s">
+      <c r="R53" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="S53" s="38">
+      <c r="S53" s="27">
         <f>SQRT(S48*S52)</f>
         <v>42228.057208228558</v>
       </c>
-      <c r="T53" s="39">
+      <c r="T53" s="28">
         <f>SQRT(T48*T52)</f>
         <v>50342.984337245281</v>
       </c>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="34"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="24"/>
       <c r="AB53" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC53" s="11">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="34"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="24"/>
       <c r="AG53" s="9"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="34"/>
+      <c r="AI53" s="24"/>
     </row>
     <row r="54" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y54" s="43" t="s">
+      <c r="Y54" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Z54" s="34">
+      <c r="Z54" s="24">
         <f>-Z41*Z46</f>
         <v>-0.99585062240663891</v>
       </c>
@@ -9722,22 +9647,21 @@
       <c r="AC54" s="11">
         <v>4.2199999999999999E-10</v>
       </c>
-      <c r="AE54" s="43" t="s">
+      <c r="AE54" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AF54" s="36">
+      <c r="AF54" s="25">
         <f>-AF41*(((1/I42) + (1/I49))^-1)</f>
         <v>-103.08715871635303</v>
       </c>
       <c r="AG54" s="9"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="34"/>
+      <c r="AI54" s="24"/>
     </row>
     <row r="55" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y55" s="43" t="s">
+      <c r="Y55" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="Z55" s="36">
+      <c r="Z55" s="25">
         <f>I32*(1-Z54)</f>
         <v>8.9813278008298754E-12</v>
       </c>
@@ -9747,22 +9671,21 @@
       <c r="AC55" s="11">
         <v>1.8199999999999999E-7</v>
       </c>
-      <c r="AE55" s="43" t="s">
+      <c r="AE55" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AF55" s="36">
+      <c r="AF55" s="25">
         <f>I32*(1-AF54)</f>
         <v>4.6839221422358865E-10</v>
       </c>
       <c r="AG55" s="9"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="34"/>
+      <c r="AI55" s="24"/>
     </row>
     <row r="56" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y56" s="43" t="s">
+      <c r="Y56" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="Z56" s="36">
+      <c r="Z56" s="25">
         <f>I32*(1-(1/Z54))</f>
         <v>9.0187500000000005E-12</v>
       </c>
@@ -9772,22 +9695,21 @@
       <c r="AC56" s="11">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="AE56" s="43" t="s">
+      <c r="AE56" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="AF56" s="36">
+      <c r="AF56" s="25">
         <f>I32*(1-(1/AF54))</f>
         <v>4.5436523816936486E-12</v>
       </c>
       <c r="AG56" s="9"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="34"/>
+      <c r="AI56" s="24"/>
     </row>
     <row r="57" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y57" s="43" t="s">
+      <c r="Y57" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="Z57" s="36">
+      <c r="Z57" s="25">
         <f>(Z55+Z47)*(((1/I35) + (1/I44) + (1/I45) + (1/Z43))^-1)</f>
         <v>1.0187460815592264E-8</v>
       </c>
@@ -9797,37 +9719,39 @@
       <c r="AC57" s="11">
         <v>872000</v>
       </c>
-      <c r="AE57" s="43" t="s">
+      <c r="AE57" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AF57" s="36">
+      <c r="AF57" s="25">
         <f>I32*(((1/I35)+(1/AF49))^-1)</f>
         <v>2.0412111102832978E-9</v>
       </c>
       <c r="AG57" s="9"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="34"/>
+      <c r="AI57" s="24"/>
     </row>
     <row r="58" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K58" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="L58" s="27" t="s">
+      <c r="L58" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="27" t="s">
+      <c r="M58" s="47"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="28"/>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="47"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="26"/>
-      <c r="Y58" s="43" t="s">
+      <c r="S58" s="47"/>
+      <c r="T58" s="43"/>
+      <c r="Y58" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="36">
+      <c r="Z58" s="25">
         <f>(Z56+Z48)*Z46</f>
         <v>1.2847744574782441E-9</v>
       </c>
@@ -9837,52 +9761,62 @@
       <c r="AC58" s="11">
         <v>4.5800000000000002E-5</v>
       </c>
-      <c r="AE58" s="43" t="s">
+      <c r="AE58" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AF58" s="36">
+      <c r="AF58" s="25">
         <f>AF47*(((1/AF43)+(1/AF64))^-1)</f>
         <v>9.9567312923281751E-10</v>
       </c>
       <c r="AG58" s="9"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="34"/>
+      <c r="AI58" s="24"/>
     </row>
     <row r="59" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="28"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="43"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="14" t="s">
+      <c r="L59" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="N59" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="O59" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="O59" s="15" t="s">
+      <c r="P59" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="P59" s="14" t="s">
+      <c r="Q59" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="R59" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="S59" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="Y59" s="43" t="s">
+      <c r="T59" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y59" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="Z59" s="36">
+      <c r="Z59" s="25">
         <f>(I32+I50)*(((1/I41)+(1/I49))^-1)</f>
         <v>1.8238213399503722E-7</v>
       </c>
@@ -9892,64 +9826,79 @@
       <c r="AC59" s="11">
         <v>9.8900000000000002E-6</v>
       </c>
-      <c r="AE59" s="43" t="s">
+      <c r="AE59" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="AF59" s="36">
+      <c r="AF59" s="25">
         <f>(((1/I42)+(1/AI35)+(1/(((((1/I39)+(1/I40)+(1/I35))^-1)+AF43)/(I31+1))))^-1)*(AF48+AF56)</f>
         <v>1.0736036569695221E-9</v>
       </c>
       <c r="AG59" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AH59" s="35">
+      <c r="AH59" s="7">
         <f>(AF56+I50)*(((1/I49)+(1/I41))^-1)</f>
         <v>1.8270708969002716E-7</v>
       </c>
-      <c r="AI59" s="34"/>
+      <c r="AI59" s="24"/>
     </row>
     <row r="60" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="H60" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="L60" s="17" t="s">
+      <c r="L60" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="15">
         <f>Z31</f>
         <v>3.220779220779221</v>
       </c>
-      <c r="N60" s="17" t="s">
+      <c r="N60" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O60" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P60" s="15">
         <f>AC31</f>
         <v>3.2902999999999998</v>
       </c>
-      <c r="P60" s="17" t="s">
+      <c r="Q60" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q60" s="19">
+      <c r="R60" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S60" s="15">
         <f>AF31</f>
         <v>3.290322580645161</v>
       </c>
-      <c r="Y60" s="43" t="s">
+      <c r="T60" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y60" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="Z60" s="34">
+      <c r="Z60" s="24">
         <f>1/(2*3.14*SQRT((Z57*Z57)+(Z58*Z58)+(Z59*Z59)))</f>
         <v>871707.64931984048</v>
       </c>
@@ -9959,61 +9908,75 @@
       <c r="AC60" s="12">
         <v>23840.33</v>
       </c>
-      <c r="AE60" s="43" t="s">
+      <c r="AE60" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AF60" s="36">
+      <c r="AF60" s="25">
         <f>1/(2*3.14*SQRT((AF57*AF57)+(AF58*AF58)+(AF59*AF59)+(AH59*AH59)))</f>
         <v>871452.88223871565</v>
       </c>
       <c r="AG60" s="9"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="34"/>
+      <c r="AI60" s="24"/>
     </row>
     <row r="61" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="44">
         <v>3.290322580645161</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="14">
         <v>3.290322580645161</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="H61" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M61" s="15">
         <f>Z32</f>
         <v>5.2467532467532472</v>
       </c>
-      <c r="N61" s="17" t="s">
+      <c r="N61" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O61" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" s="15">
         <f>AC38</f>
         <v>3.29</v>
       </c>
-      <c r="P61" s="17" t="s">
+      <c r="Q61" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="R61" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S61" s="15">
         <f>AF32</f>
         <v>3.290322580645161</v>
       </c>
-      <c r="Y61" s="43" t="s">
+      <c r="T61" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y61" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="Z61" s="36">
+      <c r="Z61" s="25">
         <f>(((1/I35)+(1/I45)+(1/Z43))^-1)+I44</f>
         <v>4345.6985950299759</v>
       </c>
@@ -10023,62 +9986,76 @@
       <c r="AC61" s="11">
         <v>0.40899999999999997</v>
       </c>
-      <c r="AE61" s="43" t="s">
+      <c r="AE61" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="AF61" s="36">
+      <c r="AF61" s="25">
         <f>(((1/I35)+(1/I39)+(1/I40))^-1)+(((1/I42)+(1/AI35))^-1)</f>
         <v>2522.9263273026158</v>
       </c>
       <c r="AG61" s="9"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="34"/>
+      <c r="AI61" s="24"/>
     </row>
     <row r="62" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="44">
         <f>S32*1000</f>
         <v>507.90638836179625</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="15">
         <v>507.90638836179625</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="H62" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M62" s="19">
+      <c r="M62" s="15">
         <f>Z33*1000</f>
         <v>0.49427043544690608</v>
       </c>
-      <c r="N62" s="17" t="s">
+      <c r="N62" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O62" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P62" s="15">
         <f>AC32*1000</f>
         <v>0.50800000000000001</v>
       </c>
-      <c r="P62" s="17" t="s">
+      <c r="Q62" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q62" s="19">
+      <c r="R62" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S62" s="15">
         <f>AF33*1000</f>
         <v>0.50790638836179625</v>
       </c>
-      <c r="Y62" s="43" t="s">
+      <c r="T62" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y62" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="Z62" s="36">
+      <c r="Z62" s="25">
         <f>((((1/I35)+(1/I45)+(1/Z43))^-1)*(Z51/Z43))+1</f>
         <v>1.0365635914761062</v>
       </c>
@@ -10088,563 +10065,706 @@
       <c r="AC62" s="11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AE62" s="43" t="s">
+      <c r="AE62" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="AF62" s="36">
+      <c r="AF62" s="25">
         <f>((((1/I42)+(1/AI35))^-1)*AF41)+1</f>
         <v>43.032715376226818</v>
       </c>
       <c r="AG62" s="9"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="34"/>
+      <c r="AI62" s="24"/>
     </row>
     <row r="63" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="44">
         <v>5.6003999999999996</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="15">
         <v>5.6003999999999996</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="H63" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="L63" s="17" t="s">
+      <c r="L63" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M63" s="19">
+      <c r="M63" s="15">
         <f>Z34*1000</f>
         <v>0.49427043544690608</v>
       </c>
-      <c r="N63" s="17" t="s">
+      <c r="N63" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O63" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" s="15">
         <f>AC39*1000</f>
         <v>0.50800000000000001</v>
       </c>
-      <c r="P63" s="17" t="s">
+      <c r="Q63" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="R63" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S63" s="15">
         <f>AF34*1000</f>
         <v>0.50790638836179625</v>
       </c>
-      <c r="Y63" s="43" t="s">
+      <c r="T63" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y63" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Z63" s="34"/>
+      <c r="Z63" s="24"/>
       <c r="AB63" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AC63" s="45">
+      <c r="AC63" s="33">
         <v>16500</v>
       </c>
-      <c r="AE63" s="43" t="s">
+      <c r="AE63" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AF63" s="34"/>
+      <c r="AF63" s="24"/>
       <c r="AG63" s="9"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="34"/>
+      <c r="AI63" s="24"/>
     </row>
     <row r="64" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="53">
         <f>L31/1000</f>
-        <v>3.2127071823204418</v>
-      </c>
-      <c r="D64">
+        <v>3.5094786729857819</v>
+      </c>
+      <c r="D64" s="61">
         <f>S38/1000</f>
         <v>3.4811009174311924</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="65">
+        <f t="shared" ref="E64:E69" si="15">ABS((C64-D64)/((C64+D64)/2)*100)</f>
+        <v>0.81188562944025522</v>
+      </c>
+      <c r="F64" s="53">
         <f>M31/1000</f>
-        <v>4.5050385299347906E-2</v>
-      </c>
-      <c r="F64" s="22">
+        <v>5.2631578947368439E-2</v>
+      </c>
+      <c r="G64" s="18">
         <f>T38/1000</f>
         <v>4.8550795104998906E-2</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="H64" s="65">
+        <f t="shared" ref="H64:H69" si="16">ABS((F64-G64)/((F64+G64)/2)*100)</f>
+        <v>8.0661950870168493</v>
+      </c>
+      <c r="K64" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="L64" s="17" t="s">
+      <c r="L64" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M64" s="15">
         <f>Z39</f>
         <v>2.0259740259740262</v>
       </c>
-      <c r="N64" s="17" t="s">
+      <c r="N64" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O64" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="15">
         <f>AC33</f>
         <v>9.41</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="Q64" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q64" s="19">
+      <c r="R64" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S64" s="15">
         <f>AF39</f>
         <v>9.4096774193548391</v>
       </c>
-      <c r="Y64" s="43" t="s">
+      <c r="T64" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y64" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="Z64" s="36">
+      <c r="Z64" s="25">
         <f>Z61/Z62</f>
         <v>4192.4090627585474</v>
       </c>
-      <c r="AB64" s="41" t="s">
+      <c r="AB64" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="AC64" s="46">
+      <c r="AC64" s="34">
         <f>SQRT(AC63*AC57)</f>
         <v>119949.98957899079</v>
       </c>
-      <c r="AE64" s="43" t="s">
+      <c r="AE64" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AF64" s="36">
+      <c r="AF64" s="25">
         <f>AF61/AF62</f>
         <v>58.628099696827228</v>
       </c>
       <c r="AG64" s="9"/>
-      <c r="AH64" s="33"/>
-      <c r="AI64" s="34"/>
+      <c r="AI64" s="24"/>
     </row>
     <row r="65" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="45">
         <f>S39/1000</f>
         <v>7.5</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="15">
         <v>7.5</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="H65" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="L65" s="17" t="s">
+      <c r="L65" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M65" s="15">
         <f>Z40</f>
         <v>3.746218487394958</v>
       </c>
-      <c r="N65" s="17" t="s">
+      <c r="N65" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O65" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" s="15">
         <f>AC40</f>
         <v>5.6</v>
       </c>
-      <c r="P65" s="17" t="s">
+      <c r="Q65" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="R65" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S65" s="15">
         <f>AF40</f>
         <v>5.6003795066413682</v>
       </c>
-      <c r="Y65" s="43" t="s">
+      <c r="T65" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y65" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="Z65" s="36">
+      <c r="Z65" s="25">
         <f>((((1/I45)+(1/I44)+(1/Z43))^-1)+I35)*I46</f>
         <v>2.4996841103061538E-5</v>
       </c>
       <c r="AB65" s="7"/>
-      <c r="AE65" s="43" t="s">
+      <c r="AE65" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="AF65" s="36">
+      <c r="AF65" s="25">
         <f>I46*(I35+AF49)</f>
         <v>5.3882177424597214E-5</v>
       </c>
       <c r="AG65" s="9"/>
-      <c r="AH65" s="44" t="s">
+      <c r="AH65" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AI65" s="36">
+      <c r="AI65" s="25">
         <f>(((((1/I35)+(1/I39)+(1/I40))^-1)+AF43)/(I31+1))</f>
         <v>50.901271505602111</v>
       </c>
     </row>
     <row r="66" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="17">
-        <f>B36</f>
-        <v>118.28</v>
-      </c>
-      <c r="D66" s="19">
+      <c r="C66" s="51">
+        <f>-B36</f>
+        <v>-124.8</v>
+      </c>
+      <c r="D66" s="45">
         <v>-132.24318555663604</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="65">
+        <f t="shared" si="15"/>
+        <v>5.7913891321550182</v>
+      </c>
+      <c r="F66" s="51">
         <f>C36</f>
-        <v>13.03</v>
-      </c>
-      <c r="F66" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="G66" s="15">
         <v>13.385647160189091</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="H66" s="65">
+        <f t="shared" si="16"/>
+        <v>2.15699588884089</v>
+      </c>
+      <c r="K66" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L66" s="53">
         <f>N31/1000</f>
-        <v>1.9952759820984585</v>
-      </c>
-      <c r="M66" s="20">
+        <v>1.9242424242424245</v>
+      </c>
+      <c r="M66" s="16">
         <f>Z49/1000</f>
         <v>1.9996841103061538</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="65">
+        <f>ABS((L66-M66)/((L66+M66)/2)*100)</f>
+        <v>3.845213991622721</v>
+      </c>
+      <c r="O66" s="59">
         <f>O31/1000</f>
-        <v>4.0250836120401345</v>
-      </c>
-      <c r="O66" s="19">
+        <v>4.1534090909090908</v>
+      </c>
+      <c r="P66" s="15">
         <f>AC37/1000</f>
         <v>4.075929006</v>
       </c>
-      <c r="P66" s="19">
+      <c r="Q66" s="54">
+        <f>ABS((O66-P66)/((O66+P66)/2)*100)</f>
+        <v>1.8830210643111651</v>
+      </c>
+      <c r="R66" s="53">
         <f>P31/1000</f>
-        <v>4.8818181818181818</v>
-      </c>
-      <c r="Q66" s="19">
+        <v>4.9729729729729737</v>
+      </c>
+      <c r="S66" s="15">
         <f>AF49/1000</f>
         <v>4.8882177424597213</v>
       </c>
-      <c r="Y66" s="43" t="s">
+      <c r="T66" s="65">
+        <f>ABS((R66-S66)/((R66+S66)/2)*100)</f>
+        <v>1.7189654466495827</v>
+      </c>
+      <c r="Y66" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="Z66" s="36">
+      <c r="Z66" s="25">
         <f>(((1/I42)+(1/(((((1/I45)+(1/I44)+(1/I35))^-1)+Z43)/(I31+1))))^-1)*I48</f>
         <v>5.1559401004579383E-3</v>
       </c>
       <c r="AB66" s="7"/>
-      <c r="AE66" s="43" t="s">
+      <c r="AE66" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AF66" s="36">
+      <c r="AF66" s="25">
         <f>((((1/I42)+(1/(((((1/I35)+(1/I39)+(1/I40))^-1)+AF43)/(I31+1))))^-1)+AI35)*I47</f>
         <v>3.5314991819280573E-4</v>
       </c>
       <c r="AG66" s="9"/>
-      <c r="AH66" s="44" t="s">
+      <c r="AH66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AI66" s="36">
+      <c r="AI66" s="25">
         <f>((((1/I40)+(1/I39)+(1/I42)+(1/AI65))^-1)+AF44)/(I31+1)</f>
         <v>49.224437042273458</v>
       </c>
     </row>
     <row r="67" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="53">
         <f>B33</f>
-        <v>4.8890000000000002</v>
-      </c>
-      <c r="D67" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="D67" s="46">
         <f>S52/1000</f>
         <v>3.9999149102664688</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="65">
+        <f t="shared" si="15"/>
+        <v>11.766825786209045</v>
+      </c>
+      <c r="F67" s="53">
         <f>C33</f>
-        <v>3.028</v>
-      </c>
-      <c r="F67" s="19">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15">
         <f>T52/1000</f>
         <v>2.9028431802130528</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="H67" s="65">
+        <f t="shared" si="16"/>
+        <v>3.2918651849883815</v>
+      </c>
+      <c r="K67" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M67" s="15">
         <f>Z50/1000</f>
         <v>7.5</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O67" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" s="15">
         <f>AC45/1000</f>
         <v>7.5</v>
       </c>
-      <c r="P67" s="19" t="s">
+      <c r="Q67" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="R67" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="S67" s="15">
         <v>7.5</v>
       </c>
-      <c r="Y67" s="43" t="s">
+      <c r="T67" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y67" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="Z67" s="36">
+      <c r="Z67" s="25">
         <f>(((1/I43)+(1/Z64))^-1)*I48</f>
         <v>0.31700803312038173</v>
       </c>
       <c r="AB67" s="7"/>
-      <c r="AE67" s="43" t="s">
+      <c r="AE67" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AF67" s="36">
+      <c r="AF67" s="25">
         <f>AI67*I48</f>
         <v>4.8753871963637943E-3</v>
       </c>
       <c r="AG67" s="9"/>
-      <c r="AH67" s="44" t="s">
+      <c r="AH67" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI67" s="36">
+      <c r="AI67" s="25">
         <f>(((1/I42)+(1/AI66))^-1)</f>
         <v>48.753871963637941</v>
       </c>
     </row>
     <row r="68" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="53">
         <f>B35</f>
-        <v>370</v>
-      </c>
-      <c r="D68" s="19">
+        <v>360</v>
+      </c>
+      <c r="D68" s="45">
         <f>S48/1000</f>
         <v>445.81168739477738</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="65">
+        <f t="shared" si="15"/>
+        <v>21.298198757133971</v>
+      </c>
+      <c r="F68" s="53">
         <f>C35</f>
-        <v>860</v>
-      </c>
-      <c r="F68" s="21">
+        <v>830</v>
+      </c>
+      <c r="G68" s="17">
         <f>T48/1000</f>
         <v>873.08060223704945</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="H68" s="65">
+        <f t="shared" si="16"/>
+        <v>5.0591383849316047</v>
+      </c>
+      <c r="K68" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L68" s="19">
-        <f>D36</f>
-        <v>102.67</v>
-      </c>
-      <c r="M68" s="19">
+      <c r="L68" s="53">
+        <f>-D36</f>
+        <v>-102</v>
+      </c>
+      <c r="M68" s="15">
         <f>Z52</f>
         <v>-117.24958096787151</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="65">
+        <f t="shared" ref="N68:N71" si="17">ABS((L68-M68)/((L68+M68)/2)*100)</f>
+        <v>13.910704778136985</v>
+      </c>
+      <c r="O68" s="51">
         <f>E36</f>
-        <v>58.11</v>
-      </c>
-      <c r="O68" s="19">
+        <v>58</v>
+      </c>
+      <c r="P68" s="15">
         <f>AC51</f>
         <v>66.714928760000006</v>
       </c>
-      <c r="P68" s="17">
+      <c r="Q68" s="54">
+        <f t="shared" ref="Q68:Q71" si="18">ABS((O68-P68)/((O68+P68)/2)*100)</f>
+        <v>13.975758710925323</v>
+      </c>
+      <c r="R68" s="51">
         <f>F36</f>
-        <v>121.69</v>
-      </c>
-      <c r="Q68" s="19">
+        <v>121</v>
+      </c>
+      <c r="S68" s="15">
         <f>AF52</f>
         <v>134.02809812484497</v>
       </c>
-      <c r="Y68" s="43" t="s">
+      <c r="T68" s="65">
+        <f t="shared" ref="T68:T71" si="19">ABS((R68-S68)/((R68+S68)/2)*100)</f>
+        <v>10.21699037920698</v>
+      </c>
+      <c r="Y68" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="Z68" s="36">
+      <c r="Z68" s="25">
         <f>I47*(I41+I49)</f>
         <v>0.10074999999999999</v>
       </c>
       <c r="AB68" s="7"/>
-      <c r="AE68" s="43" t="s">
+      <c r="AE68" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AF68" s="36">
+      <c r="AF68" s="25">
         <f>I47*(I41+I49)</f>
         <v>0.10074999999999999</v>
       </c>
       <c r="AG68" s="9"/>
-      <c r="AH68" s="33"/>
-      <c r="AI68" s="34"/>
+      <c r="AI68" s="24"/>
     </row>
     <row r="69" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="62">
         <f>B34</f>
-        <v>42.53</v>
-      </c>
-      <c r="D69" s="19">
+        <v>40.25</v>
+      </c>
+      <c r="D69" s="63">
         <f>S53/1000</f>
         <v>42.228057208228556</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="67">
+        <f t="shared" si="15"/>
+        <v>4.7965659599246999</v>
+      </c>
+      <c r="F69" s="55">
         <f>C34</f>
-        <v>51.03</v>
-      </c>
-      <c r="F69" s="19">
+        <v>50</v>
+      </c>
+      <c r="G69" s="56">
         <f>T53/1000</f>
         <v>50.342984337245284</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="H69" s="67">
+        <f t="shared" si="16"/>
+        <v>0.68362395141156829</v>
+      </c>
+      <c r="K69" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="53">
         <f>D33</f>
-        <v>7.3</v>
-      </c>
-      <c r="M69" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="M69" s="15">
         <f>Z69/1000</f>
         <v>6.3703067483950244</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="65">
+        <f t="shared" si="17"/>
+        <v>16.289376610011828</v>
+      </c>
+      <c r="O69" s="53">
         <f>E33</f>
-        <v>14.41</v>
-      </c>
-      <c r="O69" s="19">
+        <v>14</v>
+      </c>
+      <c r="P69" s="15">
         <f>AC63/1000</f>
         <v>16.5</v>
       </c>
-      <c r="P69" s="19">
+      <c r="Q69" s="54">
+        <f t="shared" si="18"/>
+        <v>16.393442622950818</v>
+      </c>
+      <c r="R69" s="53">
         <f>F33</f>
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="Q69" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="S69" s="15">
         <f>AF69/1000</f>
         <v>2.989636012979735</v>
       </c>
-      <c r="Y69" s="43" t="s">
+      <c r="T69" s="65">
+        <f t="shared" si="19"/>
+        <v>12.844674913771692</v>
+      </c>
+      <c r="Y69" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="Z69" s="34">
+      <c r="Z69" s="24">
         <f>(1/(2*3.14))*(SQRT((1/(Z65*Z65))+(1/(Z66*Z66))+(1/(Z67*Z67))+(1/(Z68*Z68))))</f>
         <v>6370.3067483950244</v>
       </c>
-      <c r="AE69" s="43" t="s">
+      <c r="AE69" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AF69" s="36">
+      <c r="AF69" s="25">
         <f>(1/(2*3.14))*(SQRT((1/(AF65*AF65))+(1/(AF66*AF66))+(1/(AF67*AF67))+(1/(AF68*AF68))))</f>
         <v>2989.6360129797349</v>
       </c>
       <c r="AG69" s="9"/>
-      <c r="AH69" s="33"/>
-      <c r="AI69" s="34"/>
+      <c r="AI69" s="24"/>
     </row>
     <row r="70" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L70" s="53">
         <f>D35</f>
-        <v>840</v>
-      </c>
-      <c r="M70" s="19">
+        <v>830</v>
+      </c>
+      <c r="M70" s="15">
         <f>Z60/1000</f>
         <v>871.70764931984047</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N70" s="65">
+        <f t="shared" si="17"/>
+        <v>4.901858358162837</v>
+      </c>
+      <c r="O70" s="53">
         <f>E35</f>
-        <v>830</v>
-      </c>
-      <c r="O70" s="19">
+        <v>840</v>
+      </c>
+      <c r="P70" s="15">
         <f>AC57/1000</f>
         <v>872</v>
       </c>
-      <c r="P70" s="19">
+      <c r="Q70" s="54">
+        <f t="shared" si="18"/>
+        <v>3.7383177570093453</v>
+      </c>
+      <c r="R70" s="53">
         <f>F35</f>
-        <v>810</v>
-      </c>
-      <c r="Q70" s="19">
+        <v>820</v>
+      </c>
+      <c r="S70" s="15">
         <f>AF60/1000</f>
         <v>871.45288223871569</v>
       </c>
-      <c r="Y70" s="41" t="s">
+      <c r="T70" s="65">
+        <f t="shared" si="19"/>
+        <v>6.08386822701386</v>
+      </c>
+      <c r="Y70" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="Z70" s="39">
+      <c r="Z70" s="28">
         <f>SQRT(Z60*Z69)</f>
         <v>74518.756840742746</v>
       </c>
-      <c r="AE70" s="41" t="s">
+      <c r="AE70" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="AF70" s="39">
+      <c r="AF70" s="28">
         <f>SQRT(AF69*AF60)</f>
         <v>51042.403160077134</v>
       </c>
-      <c r="AG70" s="37"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="39"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="27"/>
+      <c r="AI70" s="28"/>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K71" s="16" t="s">
+    <row r="71" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K71" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L71" s="55">
         <f>D34</f>
-        <v>78.3</v>
-      </c>
-      <c r="M71" s="19">
+        <v>79</v>
+      </c>
+      <c r="M71" s="56">
         <f>Z70/1000</f>
         <v>74.518756840742739</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N71" s="67">
+        <f t="shared" si="17"/>
+        <v>5.8380399261648686</v>
+      </c>
+      <c r="O71" s="55">
         <f>E34</f>
-        <v>109.36</v>
-      </c>
-      <c r="O71" s="19">
+        <v>108</v>
+      </c>
+      <c r="P71" s="56">
         <f>AC64/1000</f>
         <v>119.9499895789908</v>
       </c>
-      <c r="P71" s="19">
+      <c r="Q71" s="57">
+        <f t="shared" si="18"/>
+        <v>10.484746764903715</v>
+      </c>
+      <c r="R71" s="55">
         <f>F34</f>
-        <v>52.89</v>
-      </c>
-      <c r="Q71" s="19">
+        <v>52.8</v>
+      </c>
+      <c r="S71" s="56">
         <f>AF70/1000</f>
         <v>51.042403160077136</v>
+      </c>
+      <c r="T71" s="67">
+        <f t="shared" si="19"/>
+        <v>3.3851235842711707</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="O58:Q58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\source\repos\TROLlox78\parseEquationValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1760DA-3674-4CB2-BFBE-C589C8B38741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891CE3B5-538D-40CE-9D21-2E5CE953DBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="0" windowWidth="12075" windowHeight="16200" xr2:uid="{8721A5AD-F8B0-4928-A1B0-A8C767E4C737}"/>
+    <workbookView xWindow="885" yWindow="1485" windowWidth="12090" windowHeight="13965" xr2:uid="{8721A5AD-F8B0-4928-A1B0-A8C767E4C737}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="137">
   <si>
     <t>A</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>rpi1[Ω]</t>
-  </si>
-  <si>
-    <t>11 813,20</t>
   </si>
   <si>
     <t>re1[Ω]</t>
@@ -7295,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EC5E9-E0C8-4C3F-9331-94AADD43A3C1}">
   <dimension ref="A5:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView tabSelected="1" topLeftCell="Z34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,7 +8691,7 @@
       <c r="Y32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="Z32" s="25">
         <f>((I44+I45)*I34)/(I43+I44+I45)</f>
         <v>5.2467532467532472</v>
       </c>
@@ -8878,8 +8875,8 @@
       <c r="AB35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AC35" s="12" t="s">
-        <v>109</v>
+      <c r="AC35" s="12">
+        <v>11813.2</v>
       </c>
       <c r="AE35" s="32" t="s">
         <v>66</v>
@@ -8934,7 +8931,7 @@
         <v>8.292971734148205</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC36" s="12">
         <v>49.017429450000002</v>
@@ -8989,7 +8986,7 @@
         <v>2.5207792207792208</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC37" s="12">
         <v>4075.9290059999998</v>
@@ -9027,7 +9024,7 @@
         <v>4.546753246753247</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC38" s="12">
         <v>3.29</v>
@@ -9065,7 +9062,7 @@
         <v>2.0259740259740262</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC39" s="11">
         <v>5.0799999999999999E-4</v>
@@ -9106,7 +9103,7 @@
         <v>3.746218487394958</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC40" s="12">
         <v>5.6</v>
@@ -9146,7 +9143,7 @@
         <v>1.977081741787624E-2</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC41" s="12">
         <v>0.02</v>
@@ -9184,7 +9181,7 @@
         <v>1.977081741787624E-2</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC42" s="12">
         <v>11813.200500000001</v>
@@ -9222,7 +9219,7 @@
         <v>12139.103554868625</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC43" s="12">
         <v>49.017429450000002</v>
@@ -9231,7 +9228,7 @@
         <v>74</v>
       </c>
       <c r="AF43" s="24">
-        <f t="shared" ref="AF43" si="13">$I$31/AF41</f>
+        <f>I31/AF41</f>
         <v>11813.200498132008</v>
       </c>
       <c r="AG43" s="9"/>
@@ -9260,7 +9257,7 @@
         <v>12139.103554868625</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC44" s="12">
         <v>48.55</v>
@@ -9269,7 +9266,7 @@
         <v>75</v>
       </c>
       <c r="AF44" s="24">
-        <f t="shared" ref="AF44" si="14">$I$31/AF42</f>
+        <f>I31/AF42</f>
         <v>11813.200498132008</v>
       </c>
       <c r="AG44" s="9"/>
@@ -9417,7 +9414,7 @@
         <v>1.6488128893711507E-11</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC48" s="12">
         <v>0.89073257049999999</v>
@@ -9464,7 +9461,7 @@
         <v>1999.6841103061538</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC49" s="12">
         <v>0.49524011810000002</v>
@@ -9511,7 +9508,7 @@
         <v>7500</v>
       </c>
       <c r="AB50" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC50" s="12">
         <v>151.2376342</v>
@@ -9593,7 +9590,7 @@
         <v>-117.24958096787151</v>
       </c>
       <c r="AB52" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC52" s="12">
         <v>478.33</v>
@@ -9610,7 +9607,7 @@
     </row>
     <row r="53" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R53" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S53" s="27">
         <f>SQRT(S48*S52)</f>
@@ -9690,7 +9687,7 @@
         <v>9.0187500000000005E-12</v>
       </c>
       <c r="AB56" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC56" s="11">
         <v>7.8500000000000008E-9</v>
@@ -9731,7 +9728,7 @@
     </row>
     <row r="58" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K58" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L58" s="42" t="s">
         <v>9</v>
@@ -9773,7 +9770,7 @@
     </row>
     <row r="59" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>0</v>
@@ -9787,31 +9784,31 @@
       <c r="H59" s="43"/>
       <c r="K59" s="9"/>
       <c r="L59" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M59" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="M59" s="50" t="s">
-        <v>126</v>
-      </c>
       <c r="N59" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O59" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P59" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="P59" s="58" t="s">
-        <v>126</v>
-      </c>
       <c r="Q59" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R59" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="S59" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="S59" s="58" t="s">
-        <v>126</v>
-      </c>
       <c r="T59" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y59" s="32" t="s">
         <v>88</v>
@@ -9845,71 +9842,71 @@
     <row r="60" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="50" t="s">
-        <v>126</v>
-      </c>
       <c r="E60" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="50" t="s">
-        <v>126</v>
-      </c>
       <c r="H60" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>104</v>
       </c>
       <c r="L60" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M60" s="15">
         <f>Z31</f>
         <v>3.220779220779221</v>
       </c>
       <c r="N60" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O60" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P60" s="15">
         <f>AC31</f>
         <v>3.2902999999999998</v>
       </c>
       <c r="Q60" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R60" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S60" s="15">
         <f>AF31</f>
         <v>3.290322580645161</v>
       </c>
       <c r="T60" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y60" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z60" s="24">
         <f>1/(2*3.14*SQRT((Z57*Z57)+(Z58*Z58)+(Z59*Z59)))</f>
         <v>871707.64931984048</v>
       </c>
       <c r="AB60" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC60" s="12">
         <v>23840.33</v>
       </c>
       <c r="AE60" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF60" s="25">
         <f>1/(2*3.14*SQRT((AF57*AF57)+(AF58*AF58)+(AF59*AF59)+(AH59*AH59)))</f>
@@ -9923,55 +9920,55 @@
         <v>18</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="44">
         <v>3.290322580645161</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G61" s="14">
         <v>3.290322580645161</v>
       </c>
       <c r="H61" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L61" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M61" s="15">
         <f>Z32</f>
         <v>5.2467532467532472</v>
       </c>
       <c r="N61" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O61" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P61" s="15">
         <f>AC38</f>
         <v>3.29</v>
       </c>
       <c r="Q61" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R61" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S61" s="15">
         <f>AF32</f>
         <v>3.290322580645161</v>
       </c>
       <c r="T61" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y61" s="32" t="s">
         <v>90</v>
@@ -10001,56 +9998,56 @@
         <v>19</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="44">
         <f>S32*1000</f>
         <v>507.90638836179625</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G62" s="15">
         <v>507.90638836179625</v>
       </c>
       <c r="H62" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K62" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L62" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M62" s="15">
         <f>Z33*1000</f>
         <v>0.49427043544690608</v>
       </c>
       <c r="N62" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O62" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P62" s="15">
         <f>AC32*1000</f>
         <v>0.50800000000000001</v>
       </c>
       <c r="Q62" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R62" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S62" s="15">
         <f>AF33*1000</f>
         <v>0.50790638836179625</v>
       </c>
       <c r="T62" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y62" s="32" t="s">
         <v>91</v>
@@ -10080,55 +10077,55 @@
         <v>20</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" s="44">
         <v>5.6003999999999996</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="15">
         <v>5.6003999999999996</v>
       </c>
       <c r="H63" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K63" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M63" s="15">
         <f>Z34*1000</f>
         <v>0.49427043544690608</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O63" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P63" s="15">
         <f>AC39*1000</f>
         <v>0.50800000000000001</v>
       </c>
       <c r="Q63" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R63" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S63" s="15">
         <f>AF34*1000</f>
         <v>0.50790638836179625</v>
       </c>
       <c r="T63" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y63" s="32" t="s">
         <v>92</v>
@@ -10149,7 +10146,7 @@
     </row>
     <row r="64" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="53">
         <f>L31/1000</f>
@@ -10160,7 +10157,7 @@
         <v>3.4811009174311924</v>
       </c>
       <c r="E64" s="65">
-        <f t="shared" ref="E64:E69" si="15">ABS((C64-D64)/((C64+D64)/2)*100)</f>
+        <f t="shared" ref="E64:E69" si="13">ABS((C64-D64)/((C64+D64)/2)*100)</f>
         <v>0.81188562944025522</v>
       </c>
       <c r="F64" s="53">
@@ -10172,41 +10169,41 @@
         <v>4.8550795104998906E-2</v>
       </c>
       <c r="H64" s="65">
-        <f t="shared" ref="H64:H69" si="16">ABS((F64-G64)/((F64+G64)/2)*100)</f>
+        <f t="shared" ref="H64:H69" si="14">ABS((F64-G64)/((F64+G64)/2)*100)</f>
         <v>8.0661950870168493</v>
       </c>
       <c r="K64" s="48" t="s">
         <v>106</v>
       </c>
       <c r="L64" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M64" s="15">
         <f>Z39</f>
         <v>2.0259740259740262</v>
       </c>
       <c r="N64" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O64" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P64" s="15">
         <f>AC33</f>
         <v>9.41</v>
       </c>
       <c r="Q64" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R64" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S64" s="15">
         <f>AF39</f>
         <v>9.4096774193548391</v>
       </c>
       <c r="T64" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y64" s="32" t="s">
         <v>93</v>
@@ -10216,7 +10213,7 @@
         <v>4192.4090627585474</v>
       </c>
       <c r="AB64" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC64" s="34">
         <f>SQRT(AC63*AC57)</f>
@@ -10234,59 +10231,59 @@
     </row>
     <row r="65" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" s="45">
         <f>S39/1000</f>
         <v>7.5</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G65" s="15">
         <v>7.5</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K65" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L65" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M65" s="15">
         <f>Z40</f>
         <v>3.746218487394958</v>
       </c>
       <c r="N65" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O65" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P65" s="15">
         <f>AC40</f>
         <v>5.6</v>
       </c>
       <c r="Q65" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R65" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S65" s="15">
         <f>AF40</f>
         <v>5.6003795066413682</v>
       </c>
       <c r="T65" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y65" s="32" t="s">
         <v>94</v>
@@ -10324,7 +10321,7 @@
         <v>-132.24318555663604</v>
       </c>
       <c r="E66" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5.7913891321550182</v>
       </c>
       <c r="F66" s="51">
@@ -10335,11 +10332,11 @@
         <v>13.385647160189091</v>
       </c>
       <c r="H66" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.15699588884089</v>
       </c>
       <c r="K66" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L66" s="53">
         <f>N31/1000</f>
@@ -10403,7 +10400,7 @@
     </row>
     <row r="67" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="53">
         <f>B33</f>
@@ -10414,7 +10411,7 @@
         <v>3.9999149102664688</v>
       </c>
       <c r="E67" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>11.766825786209045</v>
       </c>
       <c r="F67" s="53">
@@ -10426,40 +10423,40 @@
         <v>2.9028431802130528</v>
       </c>
       <c r="H67" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.2918651849883815</v>
       </c>
       <c r="K67" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L67" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M67" s="15">
         <f>Z50/1000</f>
         <v>7.5</v>
       </c>
       <c r="N67" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O67" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P67" s="15">
         <f>AC45/1000</f>
         <v>7.5</v>
       </c>
       <c r="Q67" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R67" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S67" s="15">
         <v>7.5</v>
       </c>
       <c r="T67" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y67" s="32" t="s">
         <v>96</v>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="68" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="53">
         <f>B35</f>
@@ -10498,7 +10495,7 @@
         <v>445.81168739477738</v>
       </c>
       <c r="E68" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>21.298198757133971</v>
       </c>
       <c r="F68" s="53">
@@ -10510,7 +10507,7 @@
         <v>873.08060223704945</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.0591383849316047</v>
       </c>
       <c r="K68" s="48" t="s">
@@ -10525,7 +10522,7 @@
         <v>-117.24958096787151</v>
       </c>
       <c r="N68" s="65">
-        <f t="shared" ref="N68:N71" si="17">ABS((L68-M68)/((L68+M68)/2)*100)</f>
+        <f t="shared" ref="N68:N71" si="15">ABS((L68-M68)/((L68+M68)/2)*100)</f>
         <v>13.910704778136985</v>
       </c>
       <c r="O68" s="51">
@@ -10537,7 +10534,7 @@
         <v>66.714928760000006</v>
       </c>
       <c r="Q68" s="54">
-        <f t="shared" ref="Q68:Q71" si="18">ABS((O68-P68)/((O68+P68)/2)*100)</f>
+        <f t="shared" ref="Q68:Q71" si="16">ABS((O68-P68)/((O68+P68)/2)*100)</f>
         <v>13.975758710925323</v>
       </c>
       <c r="R68" s="51">
@@ -10549,7 +10546,7 @@
         <v>134.02809812484497</v>
       </c>
       <c r="T68" s="65">
-        <f t="shared" ref="T68:T71" si="19">ABS((R68-S68)/((R68+S68)/2)*100)</f>
+        <f t="shared" ref="T68:T71" si="17">ABS((R68-S68)/((R68+S68)/2)*100)</f>
         <v>10.21699037920698</v>
       </c>
       <c r="Y68" s="32" t="s">
@@ -10572,7 +10569,7 @@
     </row>
     <row r="69" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="62">
         <f>B34</f>
@@ -10583,7 +10580,7 @@
         <v>42.228057208228556</v>
       </c>
       <c r="E69" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.7965659599246999</v>
       </c>
       <c r="F69" s="55">
@@ -10595,11 +10592,11 @@
         <v>50.342984337245284</v>
       </c>
       <c r="H69" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.68362395141156829</v>
       </c>
       <c r="K69" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L69" s="53">
         <f>D33</f>
@@ -10610,7 +10607,7 @@
         <v>6.3703067483950244</v>
       </c>
       <c r="N69" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>16.289376610011828</v>
       </c>
       <c r="O69" s="53">
@@ -10622,7 +10619,7 @@
         <v>16.5</v>
       </c>
       <c r="Q69" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>16.393442622950818</v>
       </c>
       <c r="R69" s="53">
@@ -10634,7 +10631,7 @@
         <v>2.989636012979735</v>
       </c>
       <c r="T69" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>12.844674913771692</v>
       </c>
       <c r="Y69" s="32" t="s">
@@ -10656,7 +10653,7 @@
     </row>
     <row r="70" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K70" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L70" s="53">
         <f>D35</f>
@@ -10667,7 +10664,7 @@
         <v>871.70764931984047</v>
       </c>
       <c r="N70" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.901858358162837</v>
       </c>
       <c r="O70" s="53">
@@ -10679,7 +10676,7 @@
         <v>872</v>
       </c>
       <c r="Q70" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.7383177570093453</v>
       </c>
       <c r="R70" s="53">
@@ -10691,18 +10688,18 @@
         <v>871.45288223871569</v>
       </c>
       <c r="T70" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.08386822701386</v>
       </c>
       <c r="Y70" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z70" s="28">
         <f>SQRT(Z60*Z69)</f>
         <v>74518.756840742746</v>
       </c>
       <c r="AE70" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF70" s="28">
         <f>SQRT(AF69*AF60)</f>
@@ -10714,7 +10711,7 @@
     </row>
     <row r="71" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K71" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L71" s="55">
         <f>D34</f>
@@ -10725,7 +10722,7 @@
         <v>74.518756840742739</v>
       </c>
       <c r="N71" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5.8380399261648686</v>
       </c>
       <c r="O71" s="55">
@@ -10737,7 +10734,7 @@
         <v>119.9499895789908</v>
       </c>
       <c r="Q71" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>10.484746764903715</v>
       </c>
       <c r="R71" s="55">
@@ -10749,7 +10746,7 @@
         <v>51.042403160077136</v>
       </c>
       <c r="T71" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3.3851235842711707</v>
       </c>
     </row>
